--- a/src/検証結果.xlsx
+++ b/src/検証結果.xlsx
@@ -1,30 +1,65 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\devSCSA\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23528F49-8D85-4D95-AAE5-C953E1435889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28425" windowHeight="7785"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="36">
   <si>
     <t>検索内容</t>
     <rPh sb="0" eb="2">
@@ -130,9 +165,6 @@
     <t>FINES：ConcurrentModificationExceptionが発生した場合</t>
   </si>
   <si>
-    <t>〇事務処理作業関連での検証</t>
-  </si>
-  <si>
     <t>勤怠の提出方法</t>
   </si>
   <si>
@@ -197,11 +229,22 @@
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
+  <si>
+    <t>〇事務処理作業関連での検証</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>平均</t>
+    <rPh sb="0" eb="2">
+      <t>ヘイキン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -341,7 +384,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -370,79 +413,10 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -451,14 +425,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="2" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="2"/>
-    <cellStyle name="標準 3" xfId="1"/>
+    <cellStyle name="標準 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="標準 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -735,658 +709,675 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K1048576"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="65" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="74.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="D1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="G1" s="10"/>
+      <c r="H1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" s="37" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="C2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="8">
         <v>0.1</v>
       </c>
-      <c r="C3" s="17">
-        <v>1</v>
-      </c>
-      <c r="D3" s="21">
-        <v>3</v>
-      </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="40">
+      <c r="C3" s="8">
+        <v>1</v>
+      </c>
+      <c r="D3" s="8">
+        <v>3</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="13">
         <f>B3+C3+D3+E3</f>
         <v>4.0999999999999996</v>
       </c>
-      <c r="G3" s="25">
+      <c r="G3" s="13"/>
+      <c r="H3" s="8">
         <v>1.5</v>
       </c>
-      <c r="H3" s="29">
-        <v>1</v>
-      </c>
-      <c r="I3" s="33">
+      <c r="I3" s="8">
+        <v>1</v>
+      </c>
+      <c r="J3" s="8">
         <v>2</v>
       </c>
-      <c r="J3" s="38">
+      <c r="K3" s="8">
         <v>2</v>
       </c>
-      <c r="K3" s="40">
-        <f>G3+H3+I3+J3</f>
+      <c r="L3" s="13">
+        <f>H3+I3+J3+K3</f>
         <v>6.5</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A4" s="11" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="8">
         <v>0.5</v>
       </c>
-      <c r="C4" s="17">
-        <v>1</v>
-      </c>
-      <c r="D4" s="21">
+      <c r="C4" s="8">
+        <v>1</v>
+      </c>
+      <c r="D4" s="8">
         <v>3</v>
       </c>
       <c r="E4" s="8"/>
-      <c r="F4" s="40">
+      <c r="F4" s="13">
         <f>B4+C4+D4+E4</f>
         <v>4.5</v>
       </c>
-      <c r="G4" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="H4" s="29">
-        <v>1</v>
-      </c>
-      <c r="I4" s="33">
-        <v>3</v>
-      </c>
-      <c r="J4" s="38">
-        <v>1</v>
-      </c>
-      <c r="K4" s="40">
-        <f>G4+H4+I4+J4</f>
+      <c r="G4" s="13"/>
+      <c r="H4" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="I4" s="8">
+        <v>1</v>
+      </c>
+      <c r="J4" s="8">
+        <v>3</v>
+      </c>
+      <c r="K4" s="8">
+        <v>1</v>
+      </c>
+      <c r="L4" s="13">
+        <f>H4+I4+J4+K4</f>
         <v>5.5</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="I5" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="J5" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="K5" s="37" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="8">
         <v>0.1</v>
       </c>
-      <c r="C6" s="17">
-        <v>1</v>
-      </c>
-      <c r="D6" s="21">
-        <v>3</v>
-      </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="40">
+      <c r="C6" s="8">
+        <v>1</v>
+      </c>
+      <c r="D6" s="8">
+        <v>3</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="13">
         <f>B6+C6+D6+E6</f>
         <v>4.0999999999999996</v>
       </c>
-      <c r="G6" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="H6" s="29">
-        <v>1</v>
-      </c>
-      <c r="I6" s="33">
-        <v>0.5</v>
-      </c>
-      <c r="J6" s="38">
-        <v>1</v>
-      </c>
-      <c r="K6" s="40">
-        <f>G6+H6+I6+J6</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="G6" s="13"/>
+      <c r="H6" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="I6" s="8">
+        <v>1</v>
+      </c>
+      <c r="J6" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="K6" s="8">
+        <v>1</v>
+      </c>
+      <c r="L6" s="13">
+        <f>H6+I6+J6+K6</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="8">
         <v>1</v>
       </c>
-      <c r="C7" s="17">
-        <v>1</v>
-      </c>
-      <c r="D7" s="21">
+      <c r="C7" s="8">
+        <v>1</v>
+      </c>
+      <c r="D7" s="8">
         <v>3</v>
       </c>
       <c r="E7" s="8"/>
-      <c r="F7" s="40">
+      <c r="F7" s="13">
         <f>B7+C7+D7+E7</f>
         <v>5</v>
       </c>
-      <c r="G7" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="H7" s="29">
+      <c r="G7" s="13"/>
+      <c r="H7" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="I7" s="8">
         <v>4</v>
       </c>
-      <c r="I7" s="33">
-        <v>1</v>
-      </c>
-      <c r="J7" s="38">
-        <v>1</v>
-      </c>
-      <c r="K7" s="40">
-        <f>G7+H7+I7+J7</f>
+      <c r="J7" s="8">
+        <v>1</v>
+      </c>
+      <c r="K7" s="8">
+        <v>1</v>
+      </c>
+      <c r="L7" s="13">
+        <f>H7+I7+J7+K7</f>
         <v>6.5</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="K8" s="37" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A9" s="11" t="s">
+      <c r="B8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="8">
         <v>0.1</v>
       </c>
-      <c r="C9" s="17">
-        <v>1</v>
-      </c>
-      <c r="D9" s="21">
-        <v>3</v>
-      </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="40">
+      <c r="C9" s="8">
+        <v>1</v>
+      </c>
+      <c r="D9" s="8">
+        <v>3</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="13">
         <f>B9+C9+D9+E9</f>
         <v>4.0999999999999996</v>
       </c>
-      <c r="G9" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="H9" s="29">
-        <v>1</v>
-      </c>
-      <c r="I9" s="33">
-        <v>0.5</v>
-      </c>
-      <c r="J9" s="38">
-        <v>1</v>
-      </c>
-      <c r="K9" s="40">
-        <f>G9+H9+I9+J9</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A10" s="11" t="s">
+      <c r="G9" s="13"/>
+      <c r="H9" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="I9" s="8">
+        <v>1</v>
+      </c>
+      <c r="J9" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="K9" s="8">
+        <v>1</v>
+      </c>
+      <c r="L9" s="13">
+        <f>H9+I9+J9+K9</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="39"/>
-      <c r="C10" s="17">
-        <v>3</v>
-      </c>
-      <c r="D10" s="21">
+      <c r="B10" s="12"/>
+      <c r="C10" s="8">
+        <v>3</v>
+      </c>
+      <c r="D10" s="8">
         <v>5</v>
       </c>
       <c r="E10" s="8"/>
-      <c r="F10" s="40">
+      <c r="F10" s="13">
         <f>B10+C10+D10+E10</f>
         <v>8</v>
       </c>
-      <c r="G10" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="H10" s="29">
-        <v>1</v>
-      </c>
-      <c r="I10" s="33">
-        <v>1</v>
-      </c>
-      <c r="J10" s="38">
-        <v>1</v>
-      </c>
-      <c r="K10" s="40">
-        <f>G10+H10+I10+J10</f>
+      <c r="G10" s="13"/>
+      <c r="H10" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="I10" s="8">
+        <v>1</v>
+      </c>
+      <c r="J10" s="8">
+        <v>1</v>
+      </c>
+      <c r="K10" s="8">
+        <v>1</v>
+      </c>
+      <c r="L10" s="13">
+        <f>H10+I10+J10+K10</f>
         <v>3.5</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="G11" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="H11" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="I11" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="J11" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="K11" s="37" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A12" s="11" t="s">
+      <c r="B11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="8">
         <v>0.1</v>
       </c>
-      <c r="C12" s="17">
-        <v>1</v>
-      </c>
-      <c r="D12" s="21">
+      <c r="C12" s="8">
+        <v>1</v>
+      </c>
+      <c r="D12" s="8">
         <v>5</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="40">
+      <c r="E12" s="8"/>
+      <c r="F12" s="13">
         <f>B12+C12+D12+E12</f>
         <v>6.1</v>
       </c>
-      <c r="G12" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="H12" s="29">
-        <v>3</v>
-      </c>
-      <c r="I12" s="33">
+      <c r="G12" s="13"/>
+      <c r="H12" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="I12" s="8">
+        <v>3</v>
+      </c>
+      <c r="J12" s="8">
         <v>0.75</v>
       </c>
-      <c r="J12" s="38">
-        <v>1</v>
-      </c>
-      <c r="K12" s="40">
-        <f>G12+H12+I12+J12</f>
+      <c r="K12" s="8">
+        <v>1</v>
+      </c>
+      <c r="L12" s="13">
+        <f>H12+I12+J12+K12</f>
         <v>5.25</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A13" s="11" t="s">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="8">
         <v>0.2</v>
       </c>
-      <c r="C13" s="17">
-        <v>1</v>
-      </c>
-      <c r="D13" s="21">
+      <c r="C13" s="8">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8">
         <v>3</v>
       </c>
       <c r="E13" s="8"/>
-      <c r="F13" s="40">
+      <c r="F13" s="13">
         <f>B13+C13+D13+E13</f>
         <v>4.2</v>
       </c>
-      <c r="G13" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="H13" s="29">
-        <v>1</v>
-      </c>
-      <c r="I13" s="33">
-        <v>1</v>
-      </c>
-      <c r="J13" s="38">
-        <v>1</v>
-      </c>
-      <c r="K13" s="40">
-        <f>G13+H13+I13+J13</f>
+      <c r="G13" s="13"/>
+      <c r="H13" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="I13" s="8">
+        <v>1</v>
+      </c>
+      <c r="J13" s="8">
+        <v>1</v>
+      </c>
+      <c r="K13" s="8">
+        <v>1</v>
+      </c>
+      <c r="L13" s="13">
+        <f>H13+I13+J13+K13</f>
         <v>3.5</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="I14" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="J14" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="K14" s="37" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A15" s="11" t="s">
+      <c r="B14" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="8">
         <v>0.1</v>
       </c>
-      <c r="C15" s="17">
-        <v>1</v>
-      </c>
-      <c r="D15" s="21">
-        <v>3</v>
-      </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="40">
+      <c r="C15" s="8">
+        <v>1</v>
+      </c>
+      <c r="D15" s="8">
+        <v>3</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="13">
         <f>B15+C15+D15+E15</f>
         <v>4.0999999999999996</v>
       </c>
-      <c r="G15" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="H15" s="29">
-        <v>1</v>
-      </c>
-      <c r="I15" s="33">
-        <v>1</v>
-      </c>
-      <c r="J15" s="38">
-        <v>1</v>
-      </c>
-      <c r="K15" s="40">
-        <f>G15+H15+I15+J15</f>
+      <c r="G15" s="13"/>
+      <c r="H15" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="I15" s="8">
+        <v>1</v>
+      </c>
+      <c r="J15" s="8">
+        <v>1</v>
+      </c>
+      <c r="K15" s="8">
+        <v>1</v>
+      </c>
+      <c r="L15" s="13">
+        <f>H15+I15+J15+K15</f>
         <v>3.5</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A16" s="11" t="s">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="8">
         <v>0.2</v>
       </c>
-      <c r="C16" s="17">
-        <v>1</v>
-      </c>
-      <c r="D16" s="21">
+      <c r="C16" s="8">
+        <v>1</v>
+      </c>
+      <c r="D16" s="8">
         <v>3</v>
       </c>
       <c r="E16" s="8"/>
-      <c r="F16" s="40">
+      <c r="F16" s="13">
         <f>B16+C16+D16+E16</f>
         <v>4.2</v>
       </c>
-      <c r="G16" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="H16" s="29">
-        <v>1</v>
-      </c>
-      <c r="I16" s="33">
-        <v>1</v>
-      </c>
-      <c r="J16" s="38">
-        <v>1</v>
-      </c>
-      <c r="K16" s="40">
-        <f>G16+H16+I16+J16</f>
+      <c r="G16" s="13"/>
+      <c r="H16" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="I16" s="8">
+        <v>1</v>
+      </c>
+      <c r="J16" s="8">
+        <v>1</v>
+      </c>
+      <c r="K16" s="8">
+        <v>1</v>
+      </c>
+      <c r="L16" s="13">
+        <f>H16+I16+J16+K16</f>
         <v>3.5</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A17" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17">
-        <f>B3+B4+B6+B7+B9+B10+B12+B13+B15+B16</f>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="13">
+        <f t="shared" ref="B17:L17" si="0">B3+B4+B6+B7+B9+B10+B12+B13+B15+B16</f>
         <v>2.4000000000000004</v>
       </c>
-      <c r="C17">
-        <f>C3+C4+C6+C7+C9+C10+C12+C13+C15+C16</f>
+      <c r="C17" s="13">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="D17">
-        <f>D3+D4+D6+D7+D9+D10+D12+D13+D15+D16</f>
+      <c r="D17" s="13">
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="E17">
-        <f>E3+E4+E6+E7+E9+E10+E12+E13+E15+E16</f>
+      <c r="E17" s="13">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F17">
-        <f>F3+F4+F6+F7+F9+F10+F12+F13+F15+F16</f>
+      <c r="F17" s="13">
+        <f t="shared" si="0"/>
         <v>48.400000000000006</v>
       </c>
-      <c r="G17">
-        <f>G3+G4+G6+G7+G9+G10+G12+G13+G15+G16</f>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="H17">
-        <f>H3+H4+H6+H7+H9+H10+H12+H13+H15+H16</f>
+      <c r="I17" s="13">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="I17">
-        <f>I3+I4+I6+I7+I9+I10+I12+I13+I15+I16</f>
+      <c r="J17" s="13">
+        <f t="shared" si="0"/>
         <v>11.75</v>
       </c>
-      <c r="J17">
-        <f>J3+J4+J6+J7+J9+J10+J12+J13+J15+J16</f>
+      <c r="K17" s="13">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="K17">
-        <f>K3+K4+K6+K7+K9+K10+K12+K13+K15+K16</f>
+      <c r="L17" s="13">
+        <f t="shared" si="0"/>
         <v>43.75</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="2" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="B18" s="1"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="18"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="35"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B19" s="3"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="19"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
       <c r="E19" s="3"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="36"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A20" s="11" t="s">
-        <v>19</v>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="B20" s="8">
         <v>0.2</v>
       </c>
-      <c r="C20" s="17">
-        <v>1</v>
-      </c>
-      <c r="D20" s="21">
+      <c r="C20" s="8">
+        <v>1</v>
+      </c>
+      <c r="D20" s="8">
         <v>3</v>
       </c>
       <c r="E20" s="8"/>
@@ -1394,32 +1385,32 @@
         <f>B20+C20+D20+E20</f>
         <v>4.2</v>
       </c>
-      <c r="G20" s="39"/>
-      <c r="H20" s="29">
-        <v>3</v>
-      </c>
-      <c r="I20" s="34">
+      <c r="H20" s="12"/>
+      <c r="I20" s="8">
+        <v>3</v>
+      </c>
+      <c r="J20" s="8">
         <v>6</v>
       </c>
-      <c r="J20" s="38">
+      <c r="K20" s="8">
         <v>2</v>
       </c>
-      <c r="K20">
-        <f>G20+H20+I20+J20</f>
+      <c r="L20">
+        <f>H20+I20+J20+K20</f>
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="8">
         <v>0.2</v>
       </c>
-      <c r="C21" s="17">
-        <v>1</v>
-      </c>
-      <c r="D21" s="21">
+      <c r="C21" s="8">
+        <v>1</v>
+      </c>
+      <c r="D21" s="8">
         <v>3</v>
       </c>
       <c r="E21" s="8"/>
@@ -1427,34 +1418,34 @@
         <f>B21+C21+D21+E21</f>
         <v>4.2</v>
       </c>
-      <c r="G21" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="H21" s="29">
-        <v>1</v>
-      </c>
-      <c r="I21" s="33">
+      <c r="H21" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="I21" s="8">
+        <v>1</v>
+      </c>
+      <c r="J21" s="8">
         <v>0.75</v>
       </c>
-      <c r="J21" s="38">
-        <v>1</v>
-      </c>
-      <c r="K21">
-        <f>G21+H21+I21+J21</f>
+      <c r="K21" s="8">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <f>H21+I21+J21+K21</f>
         <v>3.25</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A22" s="11" t="s">
-        <v>21</v>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="B22" s="8">
         <v>0.2</v>
       </c>
-      <c r="C22" s="17">
-        <v>1</v>
-      </c>
-      <c r="D22" s="21">
+      <c r="C22" s="8">
+        <v>1</v>
+      </c>
+      <c r="D22" s="8">
         <v>1</v>
       </c>
       <c r="E22" s="8"/>
@@ -1462,34 +1453,34 @@
         <f>B22+C22+D22+E22</f>
         <v>2.2000000000000002</v>
       </c>
-      <c r="G22" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="H22" s="29">
-        <v>3</v>
-      </c>
-      <c r="I22" s="33">
+      <c r="H22" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="I22" s="8">
+        <v>3</v>
+      </c>
+      <c r="J22" s="8">
         <v>0.75</v>
       </c>
-      <c r="J22" s="38">
-        <v>1</v>
-      </c>
-      <c r="K22">
-        <f>G22+H22+I22+J22</f>
+      <c r="K22" s="8">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <f>H22+I22+J22+K22</f>
         <v>5.25</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A23" s="11" t="s">
-        <v>22</v>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="B23" s="8">
         <v>0.2</v>
       </c>
-      <c r="C23" s="17">
-        <v>1</v>
-      </c>
-      <c r="D23" s="21">
+      <c r="C23" s="8">
+        <v>1</v>
+      </c>
+      <c r="D23" s="8">
         <v>3</v>
       </c>
       <c r="E23" s="8"/>
@@ -1497,32 +1488,32 @@
         <f>B23+C23+D23+E23</f>
         <v>4.2</v>
       </c>
-      <c r="G23" s="39"/>
-      <c r="H23" s="13">
+      <c r="H23" s="12"/>
+      <c r="I23" s="11">
         <v>5</v>
       </c>
-      <c r="I23" s="33">
-        <v>3</v>
-      </c>
-      <c r="J23" s="38">
-        <v>1</v>
-      </c>
-      <c r="K23">
-        <f>G23+H23+I23+J23</f>
+      <c r="J23" s="8">
+        <v>3</v>
+      </c>
+      <c r="K23" s="8">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <f>H23+I23+J23+K23</f>
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A24" s="11" t="s">
-        <v>23</v>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="B24" s="8">
         <v>0.2</v>
       </c>
-      <c r="C24" s="17">
-        <v>1</v>
-      </c>
-      <c r="D24" s="21">
+      <c r="C24" s="8">
+        <v>1</v>
+      </c>
+      <c r="D24" s="8">
         <v>3</v>
       </c>
       <c r="E24" s="8"/>
@@ -1530,99 +1521,99 @@
         <f>B24+C24+D24+E24</f>
         <v>4.2</v>
       </c>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="33">
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="8">
         <v>2</v>
       </c>
-      <c r="J24" s="39"/>
-      <c r="K24">
-        <f>G24+H24+I24+J24</f>
+      <c r="K24" s="12"/>
+      <c r="L24">
+        <f>H24+I24+J24+K24</f>
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A25" s="41" t="s">
-        <v>33</v>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="14" t="s">
+        <v>32</v>
       </c>
       <c r="B25">
-        <f>B20+B21+B22+B23+B24</f>
+        <f t="shared" ref="B25:L25" si="1">B20+B21+B22+B23+B24</f>
         <v>1</v>
       </c>
       <c r="C25">
-        <f>C20+C21+C22+C23+C24</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="D25">
-        <f>D20+D21+D22+D23+D24</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="E25">
-        <f>E20+E21+E22+E23+E24</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F25">
-        <f>F20+F21+F22+F23+F24</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="G25">
-        <f>G20+G21+G22+G23+G24</f>
-        <v>1</v>
-      </c>
       <c r="H25">
-        <f>H20+H21+H22+H23+H24</f>
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="I25">
-        <f>I20+I21+I22+I23+I24</f>
+      <c r="J25">
+        <f t="shared" si="1"/>
         <v>12.5</v>
       </c>
-      <c r="J25">
-        <f>J20+J21+J22+J23+J24</f>
+      <c r="K25">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="K25">
-        <f>K20+K21+K22+K23+K24</f>
+      <c r="L25">
+        <f t="shared" si="1"/>
         <v>30.5</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" s="1"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="18"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
       <c r="E26" s="1"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="35"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B27" s="3"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="19"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
       <c r="E27" s="3"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="36"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A28" s="11" t="s">
-        <v>25</v>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="B28" s="8">
         <v>0.2</v>
       </c>
-      <c r="C28" s="17">
+      <c r="C28" s="8">
         <v>2</v>
       </c>
-      <c r="D28" s="21">
+      <c r="D28" s="8">
         <v>3</v>
       </c>
       <c r="E28" s="8"/>
@@ -1630,32 +1621,32 @@
         <f>B28+C28+D28+E28</f>
         <v>5.2</v>
       </c>
-      <c r="G28" s="39"/>
-      <c r="H28" s="29">
-        <v>1</v>
-      </c>
-      <c r="I28" s="33">
-        <v>0.5</v>
-      </c>
-      <c r="J28" s="38">
-        <v>1</v>
-      </c>
-      <c r="K28">
-        <f>G28+H28+I28+J28</f>
+      <c r="H28" s="12"/>
+      <c r="I28" s="8">
+        <v>1</v>
+      </c>
+      <c r="J28" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="K28" s="8">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <f>H28+I28+J28+K28</f>
         <v>2.5</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A29" s="11" t="s">
-        <v>26</v>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="B29" s="8">
         <v>0.5</v>
       </c>
-      <c r="C29" s="17">
-        <v>3</v>
-      </c>
-      <c r="D29" s="21">
+      <c r="C29" s="8">
+        <v>3</v>
+      </c>
+      <c r="D29" s="8">
         <v>3</v>
       </c>
       <c r="E29" s="8"/>
@@ -1663,34 +1654,34 @@
         <f>B29+C29+D29+E29</f>
         <v>6.5</v>
       </c>
-      <c r="G29" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="H29" s="29">
-        <v>1</v>
-      </c>
-      <c r="I29" s="33">
+      <c r="H29" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="I29" s="8">
+        <v>1</v>
+      </c>
+      <c r="J29" s="8">
         <v>0.75</v>
       </c>
-      <c r="J29" s="38">
-        <v>1</v>
-      </c>
-      <c r="K29">
-        <f>G29+H29+I29+J29</f>
+      <c r="K29" s="8">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <f>H29+I29+J29+K29</f>
         <v>3.25</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A30" s="11" t="s">
-        <v>27</v>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="B30" s="8">
         <v>0.2</v>
       </c>
-      <c r="C30" s="17">
-        <v>1</v>
-      </c>
-      <c r="D30" s="21">
+      <c r="C30" s="8">
+        <v>1</v>
+      </c>
+      <c r="D30" s="8">
         <v>3</v>
       </c>
       <c r="E30" s="8"/>
@@ -1698,34 +1689,34 @@
         <f>B30+C30+D30+E30</f>
         <v>4.2</v>
       </c>
-      <c r="G30" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="H30" s="29">
-        <v>1</v>
-      </c>
-      <c r="I30" s="33">
+      <c r="H30" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="I30" s="8">
+        <v>1</v>
+      </c>
+      <c r="J30" s="8">
         <v>0.75</v>
       </c>
-      <c r="J30" s="38">
-        <v>1</v>
-      </c>
-      <c r="K30">
-        <f>G30+H30+I30+J30</f>
+      <c r="K30" s="8">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <f>H30+I30+J30+K30</f>
         <v>3.25</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A31" s="11" t="s">
-        <v>28</v>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="B31" s="8">
         <v>0.2</v>
       </c>
-      <c r="C31" s="17">
-        <v>3</v>
-      </c>
-      <c r="D31" s="21">
+      <c r="C31" s="8">
+        <v>3</v>
+      </c>
+      <c r="D31" s="8">
         <v>3</v>
       </c>
       <c r="E31" s="8"/>
@@ -1733,34 +1724,34 @@
         <f>B31+C31+D31+E31</f>
         <v>6.2</v>
       </c>
-      <c r="G31" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="H31" s="29">
-        <v>1</v>
-      </c>
-      <c r="I31" s="33">
+      <c r="H31" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="I31" s="8">
+        <v>1</v>
+      </c>
+      <c r="J31" s="8">
         <v>0.75</v>
       </c>
-      <c r="J31" s="38">
-        <v>1</v>
-      </c>
-      <c r="K31">
-        <f>G31+H31+I31+J31</f>
+      <c r="K31" s="8">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <f>H31+I31+J31+K31</f>
         <v>3.25</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A32" s="11" t="s">
-        <v>29</v>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="B32" s="8">
         <v>0.5</v>
       </c>
-      <c r="C32" s="17">
+      <c r="C32" s="8">
         <v>2</v>
       </c>
-      <c r="D32" s="21">
+      <c r="D32" s="8">
         <v>5</v>
       </c>
       <c r="E32" s="8"/>
@@ -1768,71 +1759,3402 @@
         <f>B32+C32+D32+E32</f>
         <v>7.5</v>
       </c>
-      <c r="G32" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="H32" s="29">
-        <v>1</v>
-      </c>
-      <c r="I32" s="33">
-        <v>1</v>
-      </c>
-      <c r="J32" s="38">
-        <v>1</v>
-      </c>
-      <c r="K32">
-        <f>G32+H32+I32+J32</f>
+      <c r="H32" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="I32" s="8">
+        <v>1</v>
+      </c>
+      <c r="J32" s="8">
+        <v>1</v>
+      </c>
+      <c r="K32" s="8">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <f>H32+I32+J32+K32</f>
         <v>3.5</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A33" s="41" t="s">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <f t="shared" ref="B33:L33" si="2">B28+B29+B30+B31+B32</f>
+        <v>1.5999999999999999</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="2"/>
+        <v>29.599999999999998</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="2"/>
+        <v>3.75</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="2"/>
+        <v>15.75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E36" s="3" t="s">
         <v>33</v>
       </c>
+      <c r="F36" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="C38" s="8">
+        <v>1</v>
+      </c>
+      <c r="D38" s="8">
+        <v>3</v>
+      </c>
+      <c r="E38" s="8"/>
+      <c r="F38" s="13">
+        <f>B38+C38+D38+E38</f>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G38" s="13">
+        <f>F38/COUNTA(B38:E38)</f>
+        <v>1.3666666666666665</v>
+      </c>
+      <c r="H38" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="I38" s="8">
+        <v>1</v>
+      </c>
+      <c r="J38" s="8">
+        <v>2</v>
+      </c>
+      <c r="K38" s="8">
+        <v>2</v>
+      </c>
+      <c r="L38" s="13">
+        <f>H38+I38+J38+K38</f>
+        <v>6.5</v>
+      </c>
+      <c r="M38" s="13">
+        <f>L38/COUNTA(H38:K38)</f>
+        <v>1.625</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C39" s="8">
+        <v>1</v>
+      </c>
+      <c r="D39" s="8">
+        <v>3</v>
+      </c>
+      <c r="E39" s="8"/>
+      <c r="F39" s="13">
+        <f>B39+C39+D39+E39</f>
+        <v>4.5</v>
+      </c>
+      <c r="G39" s="13">
+        <f>F39/COUNTA(B39:E39)</f>
+        <v>1.5</v>
+      </c>
+      <c r="H39" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="I39" s="8">
+        <v>1</v>
+      </c>
+      <c r="J39" s="8">
+        <v>3</v>
+      </c>
+      <c r="K39" s="8">
+        <v>1</v>
+      </c>
+      <c r="L39" s="13">
+        <f>H39+I39+J39+K39</f>
+        <v>5.5</v>
+      </c>
+      <c r="M39" s="13">
+        <f>L39/COUNTA(H39:K39)</f>
+        <v>1.375</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="C41" s="8">
+        <v>1</v>
+      </c>
+      <c r="D41" s="8">
+        <v>3</v>
+      </c>
+      <c r="E41" s="8"/>
+      <c r="F41" s="13">
+        <f>B41+C41+D41+E41</f>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G41" s="13">
+        <f>F41/COUNTA(B41:E41)</f>
+        <v>1.3666666666666665</v>
+      </c>
+      <c r="H41" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="I41" s="8">
+        <v>1</v>
+      </c>
+      <c r="J41" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="K41" s="8">
+        <v>1</v>
+      </c>
+      <c r="L41" s="13">
+        <f>H41+I41+J41+K41</f>
+        <v>3</v>
+      </c>
+      <c r="M41" s="13">
+        <f>L41/COUNTA(H41:K41)</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" s="8">
+        <v>1</v>
+      </c>
+      <c r="C42" s="8">
+        <v>1</v>
+      </c>
+      <c r="D42" s="8">
+        <v>3</v>
+      </c>
+      <c r="E42" s="8"/>
+      <c r="F42" s="13">
+        <f>B42+C42+D42+E42</f>
+        <v>5</v>
+      </c>
+      <c r="G42" s="13">
+        <f>F42/COUNTA(B42:E42)</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="H42" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="I42" s="8">
+        <v>4</v>
+      </c>
+      <c r="J42" s="8">
+        <v>1</v>
+      </c>
+      <c r="K42" s="8">
+        <v>1</v>
+      </c>
+      <c r="L42" s="13">
+        <f>H42+I42+J42+K42</f>
+        <v>6.5</v>
+      </c>
+      <c r="M42" s="13">
+        <f>L42/COUNTA(H42:K42)</f>
+        <v>1.625</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="C44" s="8">
+        <v>1</v>
+      </c>
+      <c r="D44" s="8">
+        <v>3</v>
+      </c>
+      <c r="E44" s="8"/>
+      <c r="F44" s="13">
+        <f>B44+C44+D44+E44</f>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G44" s="13">
+        <f>F44/COUNTA(B44:E44)</f>
+        <v>1.3666666666666665</v>
+      </c>
+      <c r="H44" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="I44" s="8">
+        <v>1</v>
+      </c>
+      <c r="J44" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="K44" s="8">
+        <v>1</v>
+      </c>
+      <c r="L44" s="13">
+        <f>H44+I44+J44+K44</f>
+        <v>3</v>
+      </c>
+      <c r="M44" s="13">
+        <f>L44/COUNTA(H44:K44)</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" s="12"/>
+      <c r="C45" s="8">
+        <v>3</v>
+      </c>
+      <c r="D45" s="8">
+        <v>5</v>
+      </c>
+      <c r="E45" s="8"/>
+      <c r="F45" s="13">
+        <f>B45+C45+D45+E45</f>
+        <v>8</v>
+      </c>
+      <c r="G45" s="13">
+        <f>F45/COUNTA(B45:E45)</f>
+        <v>4</v>
+      </c>
+      <c r="H45" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="I45" s="8">
+        <v>1</v>
+      </c>
+      <c r="J45" s="8">
+        <v>1</v>
+      </c>
+      <c r="K45" s="8">
+        <v>1</v>
+      </c>
+      <c r="L45" s="13">
+        <f>H45+I45+J45+K45</f>
+        <v>3.5</v>
+      </c>
+      <c r="M45" s="13">
+        <f>L45/COUNTA(H45:K45)</f>
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="6"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B47" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="C47" s="8">
+        <v>1</v>
+      </c>
+      <c r="D47" s="8">
+        <v>5</v>
+      </c>
+      <c r="E47" s="8"/>
+      <c r="F47" s="13">
+        <f>B47+C47+D47+E47</f>
+        <v>6.1</v>
+      </c>
+      <c r="G47" s="13">
+        <f>F47/COUNTA(B47:E47)</f>
+        <v>2.0333333333333332</v>
+      </c>
+      <c r="H47" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="I47" s="8">
+        <v>3</v>
+      </c>
+      <c r="J47" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="K47" s="8">
+        <v>1</v>
+      </c>
+      <c r="L47" s="13">
+        <f>H47+I47+J47+K47</f>
+        <v>5.25</v>
+      </c>
+      <c r="M47" s="13">
+        <f>L47/COUNTA(H47:K47)</f>
+        <v>1.3125</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B48" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="C48" s="8">
+        <v>1</v>
+      </c>
+      <c r="D48" s="8">
+        <v>3</v>
+      </c>
+      <c r="E48" s="8"/>
+      <c r="F48" s="13">
+        <f>B48+C48+D48+E48</f>
+        <v>4.2</v>
+      </c>
+      <c r="G48" s="13">
+        <f>F48/COUNTA(B48:E48)</f>
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="H48" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="I48" s="8">
+        <v>1</v>
+      </c>
+      <c r="J48" s="8">
+        <v>1</v>
+      </c>
+      <c r="K48" s="8">
+        <v>1</v>
+      </c>
+      <c r="L48" s="13">
+        <f>H48+I48+J48+K48</f>
+        <v>3.5</v>
+      </c>
+      <c r="M48" s="13">
+        <f>L48/COUNTA(H48:K48)</f>
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="6"/>
+      <c r="M49" s="6"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B50" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="C50" s="8">
+        <v>1</v>
+      </c>
+      <c r="D50" s="8">
+        <v>3</v>
+      </c>
+      <c r="E50" s="8"/>
+      <c r="F50" s="13">
+        <f>B50+C50+D50+E50</f>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G50" s="13">
+        <f>F50/COUNTA(B50:E50)</f>
+        <v>1.3666666666666665</v>
+      </c>
+      <c r="H50" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="I50" s="8">
+        <v>1</v>
+      </c>
+      <c r="J50" s="8">
+        <v>1</v>
+      </c>
+      <c r="K50" s="8">
+        <v>1</v>
+      </c>
+      <c r="L50" s="13">
+        <f>H50+I50+J50+K50</f>
+        <v>3.5</v>
+      </c>
+      <c r="M50" s="13">
+        <f t="shared" ref="M50:M53" si="3">L50/COUNTA(H50:K50)</f>
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B51" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="C51" s="8">
+        <v>1</v>
+      </c>
+      <c r="D51" s="8">
+        <v>3</v>
+      </c>
+      <c r="E51" s="8"/>
+      <c r="F51" s="13">
+        <f>B51+C51+D51+E51</f>
+        <v>4.2</v>
+      </c>
+      <c r="G51" s="13">
+        <f>F51/COUNTA(B51:E51)</f>
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="H51" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="I51" s="8">
+        <v>1</v>
+      </c>
+      <c r="J51" s="8">
+        <v>1</v>
+      </c>
+      <c r="K51" s="8">
+        <v>1</v>
+      </c>
+      <c r="L51" s="13">
+        <f>H51+I51+J51+K51</f>
+        <v>3.5</v>
+      </c>
+      <c r="M51" s="13">
+        <f t="shared" si="3"/>
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B52" s="13">
+        <f t="shared" ref="B52" si="4">B38+B39+B41+B42+B44+B45+B47+B48+B50+B51</f>
+        <v>2.4000000000000004</v>
+      </c>
+      <c r="C52" s="13">
+        <f t="shared" ref="C52" si="5">C38+C39+C41+C42+C44+C45+C47+C48+C50+C51</f>
+        <v>12</v>
+      </c>
+      <c r="D52" s="13">
+        <f t="shared" ref="D52" si="6">D38+D39+D41+D42+D44+D45+D47+D48+D50+D51</f>
+        <v>34</v>
+      </c>
+      <c r="E52" s="13">
+        <f t="shared" ref="E52" si="7">E38+E39+E41+E42+E44+E45+E47+E48+E50+E51</f>
+        <v>0</v>
+      </c>
+      <c r="F52" s="13">
+        <f t="shared" ref="F52" si="8">F38+F39+F41+F42+F44+F45+F47+F48+F50+F51</f>
+        <v>48.400000000000006</v>
+      </c>
+      <c r="G52" s="13">
+        <f>F52/COUNTA(B52:E52)</f>
+        <v>12.100000000000001</v>
+      </c>
+      <c r="H52" s="13">
+        <f t="shared" ref="H52" si="9">H38+H39+H41+H42+H44+H45+H47+H48+H50+H51</f>
+        <v>6</v>
+      </c>
+      <c r="I52" s="13">
+        <f t="shared" ref="I52" si="10">I38+I39+I41+I42+I44+I45+I47+I48+I50+I51</f>
+        <v>15</v>
+      </c>
+      <c r="J52" s="13">
+        <f t="shared" ref="J52" si="11">J38+J39+J41+J42+J44+J45+J47+J48+J50+J51</f>
+        <v>11.75</v>
+      </c>
+      <c r="K52" s="13">
+        <f t="shared" ref="K52" si="12">K38+K39+K41+K42+K44+K45+K47+K48+K50+K51</f>
+        <v>11</v>
+      </c>
+      <c r="L52" s="13">
+        <f t="shared" ref="L52" si="13">L38+L39+L41+L42+L44+L45+L47+L48+L50+L51</f>
+        <v>43.75</v>
+      </c>
+      <c r="M52" s="13">
+        <f t="shared" si="3"/>
+        <v>10.9375</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B53" s="13">
+        <f>B52/COUNTA(B37:B51)</f>
+        <v>0.26666666666666672</v>
+      </c>
+      <c r="C53" s="13">
+        <f>C52/COUNTA(C37:C51)</f>
+        <v>1.2</v>
+      </c>
+      <c r="D53" s="13">
+        <f>D52/COUNTA(D37:D51)</f>
+        <v>3.4</v>
+      </c>
+      <c r="E53" s="13" t="e">
+        <f>E52/COUNTA(E37:E51)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F53" s="13">
+        <f>F52/COUNTA(F37:F51)</f>
+        <v>4.8400000000000007</v>
+      </c>
+      <c r="G53" s="13">
+        <f>F53/COUNTA(B53:E53)</f>
+        <v>1.2100000000000002</v>
+      </c>
+      <c r="H53" s="13">
+        <f>H52/COUNTA(H37:H51)</f>
+        <v>0.6</v>
+      </c>
+      <c r="I53" s="13">
+        <f>I52/COUNTA(I37:I51)</f>
+        <v>1.5</v>
+      </c>
+      <c r="J53" s="13">
+        <f>J52/COUNTA(J37:J51)</f>
+        <v>1.175</v>
+      </c>
+      <c r="K53" s="13">
+        <f>K52/COUNTA(K37:K51)</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L53" s="13">
+        <f>L52/COUNTA(L37:L51)</f>
+        <v>4.375</v>
+      </c>
+      <c r="M53" s="13">
+        <f t="shared" si="3"/>
+        <v>1.09375</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G55" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M55" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B56" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="C56" s="8">
+        <v>1</v>
+      </c>
+      <c r="D56" s="8">
+        <v>3</v>
+      </c>
+      <c r="E56" s="8"/>
+      <c r="F56">
+        <f>B56+C56+D56+E56</f>
+        <v>4.2</v>
+      </c>
+      <c r="G56">
+        <f>F56/COUNTA(B56:E56)</f>
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="H56" s="12"/>
+      <c r="I56" s="8">
+        <v>3</v>
+      </c>
+      <c r="J56" s="8">
+        <v>6</v>
+      </c>
+      <c r="K56" s="8">
+        <v>2</v>
+      </c>
+      <c r="L56">
+        <f>H56+I56+J56+K56</f>
+        <v>11</v>
+      </c>
+      <c r="M56">
+        <f>L56/COUNTA(H56:K56)</f>
+        <v>3.6666666666666665</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B57" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="C57" s="8">
+        <v>1</v>
+      </c>
+      <c r="D57" s="8">
+        <v>3</v>
+      </c>
+      <c r="E57" s="8"/>
+      <c r="F57">
+        <f>B57+C57+D57+E57</f>
+        <v>4.2</v>
+      </c>
+      <c r="G57">
+        <f>F57/COUNTA(B57:E57)</f>
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="H57" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="I57" s="8">
+        <v>1</v>
+      </c>
+      <c r="J57" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="K57" s="8">
+        <v>1</v>
+      </c>
+      <c r="L57">
+        <f>H57+I57+J57+K57</f>
+        <v>3.25</v>
+      </c>
+      <c r="M57">
+        <f>L57/COUNTA(H57:K57)</f>
+        <v>0.8125</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B58" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="C58" s="8">
+        <v>1</v>
+      </c>
+      <c r="D58" s="8">
+        <v>1</v>
+      </c>
+      <c r="E58" s="8"/>
+      <c r="F58">
+        <f>B58+C58+D58+E58</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G58">
+        <f>F58/COUNTA(B58:E58)</f>
+        <v>0.73333333333333339</v>
+      </c>
+      <c r="H58" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="I58" s="8">
+        <v>3</v>
+      </c>
+      <c r="J58" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="K58" s="8">
+        <v>1</v>
+      </c>
+      <c r="L58">
+        <f>H58+I58+J58+K58</f>
+        <v>5.25</v>
+      </c>
+      <c r="M58">
+        <f>L58/COUNTA(H58:K58)</f>
+        <v>1.3125</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B59" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="C59" s="8">
+        <v>1</v>
+      </c>
+      <c r="D59" s="8">
+        <v>3</v>
+      </c>
+      <c r="E59" s="8"/>
+      <c r="F59">
+        <f>B59+C59+D59+E59</f>
+        <v>4.2</v>
+      </c>
+      <c r="G59">
+        <f>F59/COUNTA(B59:E59)</f>
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="H59" s="12"/>
+      <c r="I59" s="11">
+        <v>5</v>
+      </c>
+      <c r="J59" s="8">
+        <v>3</v>
+      </c>
+      <c r="K59" s="8">
+        <v>1</v>
+      </c>
+      <c r="L59">
+        <f>H59+I59+J59+K59</f>
+        <v>9</v>
+      </c>
+      <c r="M59">
+        <f>L59/COUNTA(H59:K59)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B60" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="C60" s="8">
+        <v>1</v>
+      </c>
+      <c r="D60" s="8">
+        <v>3</v>
+      </c>
+      <c r="E60" s="8"/>
+      <c r="F60">
+        <f>B60+C60+D60+E60</f>
+        <v>4.2</v>
+      </c>
+      <c r="G60">
+        <f>F60/COUNTA(B60:E60)</f>
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="8">
+        <v>2</v>
+      </c>
+      <c r="K60" s="12"/>
+      <c r="L60">
+        <f>H60+I60+J60+K60</f>
+        <v>2</v>
+      </c>
+      <c r="M60">
+        <f>L60/COUNTA(H60:K60)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B61">
+        <f t="shared" ref="B61" si="14">B56+B57+B58+B59+B60</f>
+        <v>1</v>
+      </c>
+      <c r="C61">
+        <f t="shared" ref="C61" si="15">C56+C57+C58+C59+C60</f>
+        <v>5</v>
+      </c>
+      <c r="D61">
+        <f t="shared" ref="D61" si="16">D56+D57+D58+D59+D60</f>
+        <v>13</v>
+      </c>
+      <c r="E61">
+        <f t="shared" ref="E61" si="17">E56+E57+E58+E59+E60</f>
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <f t="shared" ref="F61" si="18">F56+F57+F58+F59+F60</f>
+        <v>19</v>
+      </c>
+      <c r="G61">
+        <f>F61/COUNTA(B61:E61)</f>
+        <v>4.75</v>
+      </c>
+      <c r="H61">
+        <f t="shared" ref="H61" si="19">H56+H57+H58+H59+H60</f>
+        <v>1</v>
+      </c>
+      <c r="I61">
+        <f t="shared" ref="I61" si="20">I56+I57+I58+I59+I60</f>
+        <v>12</v>
+      </c>
+      <c r="J61">
+        <f t="shared" ref="J61" si="21">J56+J57+J58+J59+J60</f>
+        <v>12.5</v>
+      </c>
+      <c r="K61">
+        <f t="shared" ref="K61" si="22">K56+K57+K58+K59+K60</f>
+        <v>5</v>
+      </c>
+      <c r="L61">
+        <f t="shared" ref="L61" si="23">L56+L57+L58+L59+L60</f>
+        <v>30.5</v>
+      </c>
+      <c r="M61">
+        <f>L61/COUNTA(H61:K61)</f>
+        <v>7.625</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F62">
+        <f>F61/COUNTA(F56:F60)</f>
+        <v>3.8</v>
+      </c>
+      <c r="G62">
+        <f>G61/COUNTA(G56:G60)</f>
+        <v>0.95</v>
+      </c>
+      <c r="L62">
+        <f>L61/COUNTA(L56:L60)</f>
+        <v>6.1</v>
+      </c>
+      <c r="M62">
+        <f>M61/COUNTA(M56:M60)</f>
+        <v>1.5249999999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="H64" s="3"/>
+      <c r="I64" s="3"/>
+      <c r="J64" s="3"/>
+      <c r="K64" s="3"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B65" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="C65" s="8">
+        <v>2</v>
+      </c>
+      <c r="D65" s="8">
+        <v>3</v>
+      </c>
+      <c r="E65" s="8"/>
+      <c r="F65">
+        <f>B65+C65+D65+E65</f>
+        <v>5.2</v>
+      </c>
+      <c r="H65" s="12"/>
+      <c r="I65" s="8">
+        <v>1</v>
+      </c>
+      <c r="J65" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="K65" s="8">
+        <v>1</v>
+      </c>
+      <c r="L65">
+        <f>H65+I65+J65+K65</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B66" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C66" s="8">
+        <v>3</v>
+      </c>
+      <c r="D66" s="8">
+        <v>3</v>
+      </c>
+      <c r="E66" s="8"/>
+      <c r="F66">
+        <f>B66+C66+D66+E66</f>
+        <v>6.5</v>
+      </c>
+      <c r="H66" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="I66" s="8">
+        <v>1</v>
+      </c>
+      <c r="J66" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="K66" s="8">
+        <v>1</v>
+      </c>
+      <c r="L66">
+        <f>H66+I66+J66+K66</f>
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B67" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="C67" s="8">
+        <v>1</v>
+      </c>
+      <c r="D67" s="8">
+        <v>3</v>
+      </c>
+      <c r="E67" s="8"/>
+      <c r="F67">
+        <f>B67+C67+D67+E67</f>
+        <v>4.2</v>
+      </c>
+      <c r="H67" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="I67" s="8">
+        <v>1</v>
+      </c>
+      <c r="J67" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="K67" s="8">
+        <v>1</v>
+      </c>
+      <c r="L67">
+        <f>H67+I67+J67+K67</f>
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B68" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="C68" s="8">
+        <v>3</v>
+      </c>
+      <c r="D68" s="8">
+        <v>3</v>
+      </c>
+      <c r="E68" s="8"/>
+      <c r="F68">
+        <f>B68+C68+D68+E68</f>
+        <v>6.2</v>
+      </c>
+      <c r="H68" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="I68" s="8">
+        <v>1</v>
+      </c>
+      <c r="J68" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="K68" s="8">
+        <v>1</v>
+      </c>
+      <c r="L68">
+        <f>H68+I68+J68+K68</f>
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B69" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C69" s="8">
+        <v>2</v>
+      </c>
+      <c r="D69" s="8">
+        <v>5</v>
+      </c>
+      <c r="E69" s="8"/>
+      <c r="F69">
+        <f>B69+C69+D69+E69</f>
+        <v>7.5</v>
+      </c>
+      <c r="H69" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="I69" s="8">
+        <v>1</v>
+      </c>
+      <c r="J69" s="8">
+        <v>1</v>
+      </c>
+      <c r="K69" s="8">
+        <v>1</v>
+      </c>
+      <c r="L69">
+        <f>H69+I69+J69+K69</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B70">
+        <f t="shared" ref="B70" si="24">B65+B66+B67+B68+B69</f>
+        <v>1.5999999999999999</v>
+      </c>
+      <c r="C70">
+        <f t="shared" ref="C70" si="25">C65+C66+C67+C68+C69</f>
+        <v>11</v>
+      </c>
+      <c r="D70">
+        <f t="shared" ref="D70" si="26">D65+D66+D67+D68+D69</f>
+        <v>17</v>
+      </c>
+      <c r="E70">
+        <f t="shared" ref="E70" si="27">E65+E66+E67+E68+E69</f>
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <f t="shared" ref="F70" si="28">F65+F66+F67+F68+F69</f>
+        <v>29.599999999999998</v>
+      </c>
+      <c r="H70">
+        <f t="shared" ref="H70" si="29">H65+H66+H67+H68+H69</f>
+        <v>2</v>
+      </c>
+      <c r="I70">
+        <f t="shared" ref="I70" si="30">I65+I66+I67+I68+I69</f>
+        <v>5</v>
+      </c>
+      <c r="J70">
+        <f t="shared" ref="J70" si="31">J65+J66+J67+J68+J69</f>
+        <v>3.75</v>
+      </c>
+      <c r="K70">
+        <f t="shared" ref="K70" si="32">K65+K66+K67+K68+K69</f>
+        <v>5</v>
+      </c>
+      <c r="L70">
+        <f t="shared" ref="L70" si="33">L65+L66+L67+L68+L69</f>
+        <v>15.75</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="F73">
+        <f>F52/COUNTA(B37:E51)</f>
+        <v>1.6689655172413795</v>
+      </c>
+      <c r="L73">
+        <f>L52/COUNTA(H38:K51)</f>
+        <v>1.09375</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="F74">
+        <f>F61/COUNTA(B56:E60)</f>
+        <v>1.2666666666666666</v>
+      </c>
+      <c r="L74">
+        <f>L61/COUNTA(H56:K60)</f>
+        <v>2.0333333333333332</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="F75">
+        <f>F70/COUNTA(B65:E69)</f>
+        <v>1.9733333333333332</v>
+      </c>
+      <c r="L75">
+        <f>L70/COUNTA(H65:K69)</f>
+        <v>0.82894736842105265</v>
+      </c>
+    </row>
+    <row r="1048576" spans="12:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="L1048576">
+        <f>H1048576+I1048576+J1048576+K1048576</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC20AD32-AC5F-44E2-9983-7907C4DEBD31}">
+  <dimension ref="A1:M1048576"/>
+  <sheetViews>
+    <sheetView topLeftCell="A15" zoomScale="84" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:XFD65"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="74.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="10"/>
+      <c r="H1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="C3" s="8">
+        <v>1</v>
+      </c>
+      <c r="D3" s="8">
+        <v>3</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="13">
+        <f>B3+C3+D3+E3</f>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G3" s="13"/>
+      <c r="H3" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="I3" s="8">
+        <v>1</v>
+      </c>
+      <c r="J3" s="8">
+        <v>2</v>
+      </c>
+      <c r="K3" s="8">
+        <v>2</v>
+      </c>
+      <c r="L3" s="13">
+        <f>H3+I3+J3+K3</f>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C4" s="8">
+        <v>1</v>
+      </c>
+      <c r="D4" s="8">
+        <v>3</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="13">
+        <f>B4+C4+D4+E4</f>
+        <v>4.5</v>
+      </c>
+      <c r="G4" s="13"/>
+      <c r="H4" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="I4" s="8">
+        <v>1</v>
+      </c>
+      <c r="J4" s="8">
+        <v>3</v>
+      </c>
+      <c r="K4" s="8">
+        <v>1</v>
+      </c>
+      <c r="L4" s="13">
+        <f>H4+I4+J4+K4</f>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="C6" s="8">
+        <v>1</v>
+      </c>
+      <c r="D6" s="8">
+        <v>3</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="13">
+        <f>B6+C6+D6+E6</f>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G6" s="13"/>
+      <c r="H6" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="I6" s="8">
+        <v>1</v>
+      </c>
+      <c r="J6" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="K6" s="8">
+        <v>1</v>
+      </c>
+      <c r="L6" s="13">
+        <f>H6+I6+J6+K6</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="8">
+        <v>1</v>
+      </c>
+      <c r="C7" s="8">
+        <v>1</v>
+      </c>
+      <c r="D7" s="8">
+        <v>3</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="13">
+        <f>B7+C7+D7+E7</f>
+        <v>5</v>
+      </c>
+      <c r="G7" s="13"/>
+      <c r="H7" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="I7" s="8">
+        <v>4</v>
+      </c>
+      <c r="J7" s="8">
+        <v>1</v>
+      </c>
+      <c r="K7" s="8">
+        <v>1</v>
+      </c>
+      <c r="L7" s="13">
+        <f>H7+I7+J7+K7</f>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="C9" s="8">
+        <v>1</v>
+      </c>
+      <c r="D9" s="8">
+        <v>3</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="13">
+        <f>B9+C9+D9+E9</f>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G9" s="13"/>
+      <c r="H9" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="I9" s="8">
+        <v>1</v>
+      </c>
+      <c r="J9" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="K9" s="8">
+        <v>1</v>
+      </c>
+      <c r="L9" s="13">
+        <f>H9+I9+J9+K9</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="8">
+        <v>3</v>
+      </c>
+      <c r="D10" s="8">
+        <v>5</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="13">
+        <f>B10+C10+D10+E10</f>
+        <v>8</v>
+      </c>
+      <c r="G10" s="13"/>
+      <c r="H10" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="I10" s="8">
+        <v>1</v>
+      </c>
+      <c r="J10" s="8">
+        <v>1</v>
+      </c>
+      <c r="K10" s="8">
+        <v>1</v>
+      </c>
+      <c r="L10" s="13">
+        <f>H10+I10+J10+K10</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="C12" s="8">
+        <v>1</v>
+      </c>
+      <c r="D12" s="8">
+        <v>5</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="13">
+        <f>B12+C12+D12+E12</f>
+        <v>6.1</v>
+      </c>
+      <c r="G12" s="13"/>
+      <c r="H12" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="I12" s="8">
+        <v>3</v>
+      </c>
+      <c r="J12" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="K12" s="8">
+        <v>1</v>
+      </c>
+      <c r="L12" s="13">
+        <f>H12+I12+J12+K12</f>
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="C13" s="8">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8">
+        <v>3</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="13">
+        <f>B13+C13+D13+E13</f>
+        <v>4.2</v>
+      </c>
+      <c r="G13" s="13"/>
+      <c r="H13" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="I13" s="8">
+        <v>1</v>
+      </c>
+      <c r="J13" s="8">
+        <v>1</v>
+      </c>
+      <c r="K13" s="8">
+        <v>1</v>
+      </c>
+      <c r="L13" s="13">
+        <f>H13+I13+J13+K13</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="C15" s="8">
+        <v>1</v>
+      </c>
+      <c r="D15" s="8">
+        <v>3</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="13">
+        <f>B15+C15+D15+E15</f>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G15" s="13"/>
+      <c r="H15" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="I15" s="8">
+        <v>1</v>
+      </c>
+      <c r="J15" s="8">
+        <v>1</v>
+      </c>
+      <c r="K15" s="8">
+        <v>1</v>
+      </c>
+      <c r="L15" s="13">
+        <f>H15+I15+J15+K15</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="C16" s="8">
+        <v>1</v>
+      </c>
+      <c r="D16" s="8">
+        <v>3</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="13">
+        <f>B16+C16+D16+E16</f>
+        <v>4.2</v>
+      </c>
+      <c r="G16" s="13"/>
+      <c r="H16" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="I16" s="8">
+        <v>1</v>
+      </c>
+      <c r="J16" s="8">
+        <v>1</v>
+      </c>
+      <c r="K16" s="8">
+        <v>1</v>
+      </c>
+      <c r="L16" s="13">
+        <f>H16+I16+J16+K16</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="13">
+        <f t="shared" ref="B17:L17" si="0">B3+B4+B6+B7+B9+B10+B12+B13+B15+B16</f>
+        <v>2.4000000000000004</v>
+      </c>
+      <c r="C17" s="13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D17" s="13">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="E17" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="13">
+        <f t="shared" si="0"/>
+        <v>48.400000000000006</v>
+      </c>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="I17" s="13">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="J17" s="13">
+        <f t="shared" si="0"/>
+        <v>11.75</v>
+      </c>
+      <c r="K17" s="13">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="L17" s="13">
+        <f t="shared" si="0"/>
+        <v>43.75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="C20" s="8">
+        <v>1</v>
+      </c>
+      <c r="D20" s="8">
+        <v>3</v>
+      </c>
+      <c r="E20" s="8"/>
+      <c r="F20">
+        <f>B20+C20+D20+E20</f>
+        <v>4.2</v>
+      </c>
+      <c r="H20" s="12"/>
+      <c r="I20" s="8">
+        <v>3</v>
+      </c>
+      <c r="J20" s="8">
+        <v>6</v>
+      </c>
+      <c r="K20" s="8">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <f>H20+I20+J20+K20</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="C21" s="8">
+        <v>1</v>
+      </c>
+      <c r="D21" s="8">
+        <v>3</v>
+      </c>
+      <c r="E21" s="8"/>
+      <c r="F21">
+        <f>B21+C21+D21+E21</f>
+        <v>4.2</v>
+      </c>
+      <c r="H21" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="I21" s="8">
+        <v>1</v>
+      </c>
+      <c r="J21" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="K21" s="8">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <f>H21+I21+J21+K21</f>
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="C22" s="8">
+        <v>1</v>
+      </c>
+      <c r="D22" s="8">
+        <v>1</v>
+      </c>
+      <c r="E22" s="8"/>
+      <c r="F22">
+        <f>B22+C22+D22+E22</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H22" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="I22" s="8">
+        <v>3</v>
+      </c>
+      <c r="J22" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="K22" s="8">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <f>H22+I22+J22+K22</f>
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="C23" s="8">
+        <v>1</v>
+      </c>
+      <c r="D23" s="8">
+        <v>3</v>
+      </c>
+      <c r="E23" s="8"/>
+      <c r="F23">
+        <f>B23+C23+D23+E23</f>
+        <v>4.2</v>
+      </c>
+      <c r="H23" s="12"/>
+      <c r="I23" s="11">
+        <v>5</v>
+      </c>
+      <c r="J23" s="8">
+        <v>3</v>
+      </c>
+      <c r="K23" s="8">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <f>H23+I23+J23+K23</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="C24" s="8">
+        <v>1</v>
+      </c>
+      <c r="D24" s="8">
+        <v>3</v>
+      </c>
+      <c r="E24" s="8"/>
+      <c r="F24">
+        <f>B24+C24+D24+E24</f>
+        <v>4.2</v>
+      </c>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="8">
+        <v>2</v>
+      </c>
+      <c r="K24" s="12"/>
+      <c r="L24">
+        <f>H24+I24+J24+K24</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25">
+        <f t="shared" ref="B25:L25" si="1">B20+B21+B22+B23+B24</f>
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="1"/>
+        <v>12.5</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="1"/>
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="C28" s="8">
+        <v>2</v>
+      </c>
+      <c r="D28" s="8">
+        <v>3</v>
+      </c>
+      <c r="E28" s="8"/>
+      <c r="F28">
+        <f>B28+C28+D28+E28</f>
+        <v>5.2</v>
+      </c>
+      <c r="H28" s="12"/>
+      <c r="I28" s="8">
+        <v>1</v>
+      </c>
+      <c r="J28" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="K28" s="8">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <f>H28+I28+J28+K28</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C29" s="8">
+        <v>3</v>
+      </c>
+      <c r="D29" s="8">
+        <v>3</v>
+      </c>
+      <c r="E29" s="8"/>
+      <c r="F29">
+        <f>B29+C29+D29+E29</f>
+        <v>6.5</v>
+      </c>
+      <c r="H29" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="I29" s="8">
+        <v>1</v>
+      </c>
+      <c r="J29" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="K29" s="8">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <f>H29+I29+J29+K29</f>
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="C30" s="8">
+        <v>1</v>
+      </c>
+      <c r="D30" s="8">
+        <v>3</v>
+      </c>
+      <c r="E30" s="8"/>
+      <c r="F30">
+        <f>B30+C30+D30+E30</f>
+        <v>4.2</v>
+      </c>
+      <c r="H30" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="I30" s="8">
+        <v>1</v>
+      </c>
+      <c r="J30" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="K30" s="8">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <f>H30+I30+J30+K30</f>
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="C31" s="8">
+        <v>3</v>
+      </c>
+      <c r="D31" s="8">
+        <v>3</v>
+      </c>
+      <c r="E31" s="8"/>
+      <c r="F31">
+        <f>B31+C31+D31+E31</f>
+        <v>6.2</v>
+      </c>
+      <c r="H31" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="I31" s="8">
+        <v>1</v>
+      </c>
+      <c r="J31" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="K31" s="8">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <f>H31+I31+J31+K31</f>
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C32" s="8">
+        <v>2</v>
+      </c>
+      <c r="D32" s="8">
+        <v>5</v>
+      </c>
+      <c r="E32" s="8"/>
+      <c r="F32">
+        <f>B32+C32+D32+E32</f>
+        <v>7.5</v>
+      </c>
+      <c r="H32" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="I32" s="8">
+        <v>1</v>
+      </c>
+      <c r="J32" s="8">
+        <v>1</v>
+      </c>
+      <c r="K32" s="8">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <f>H32+I32+J32+K32</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="14" t="s">
+        <v>32</v>
+      </c>
       <c r="B33">
-        <f>B28+B29+B30+B31+B32</f>
+        <f t="shared" ref="B33:L33" si="2">B28+B29+B30+B31+B32</f>
         <v>1.5999999999999999</v>
       </c>
       <c r="C33">
-        <f>C28+C29+C30+C31+C32</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="D33">
-        <f>D28+D29+D30+D31+D32</f>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="E33">
-        <f>E28+E29+E30+E31+E32</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F33">
-        <f>F28+F29+F30+F31+F32</f>
+        <f t="shared" si="2"/>
         <v>29.599999999999998</v>
       </c>
-      <c r="G33">
-        <f>G28+G29+G30+G31+G32</f>
+      <c r="H33">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="H33">
-        <f>H28+H29+H30+H31+H32</f>
+      <c r="I33">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="I33">
-        <f>I28+I29+I30+I31+I32</f>
+      <c r="J33">
+        <f t="shared" si="2"/>
         <v>3.75</v>
       </c>
-      <c r="J33">
-        <f>J28+J29+J30+J31+J32</f>
+      <c r="K33">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="K33">
-        <f>K28+K29+K30+K31+K32</f>
+      <c r="L33">
+        <f t="shared" si="2"/>
         <v>15.75</v>
       </c>
     </row>
-    <row r="1048576" spans="11:11" x14ac:dyDescent="0.4">
-      <c r="K1048576">
-        <f>G1048576+H1048576+I1048576+J1048576</f>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="C38" s="8">
+        <v>1</v>
+      </c>
+      <c r="D38" s="8">
+        <v>3</v>
+      </c>
+      <c r="E38" s="8"/>
+      <c r="F38" s="13">
+        <f>B38+C38+D38+E38</f>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G38" s="13">
+        <f>F38/COUNTA(B38:E38)</f>
+        <v>1.3666666666666665</v>
+      </c>
+      <c r="H38" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="I38" s="8">
+        <v>1</v>
+      </c>
+      <c r="J38" s="8">
+        <v>2</v>
+      </c>
+      <c r="K38" s="8">
+        <v>2</v>
+      </c>
+      <c r="L38" s="13">
+        <f>H38+I38+J38+K38</f>
+        <v>6.5</v>
+      </c>
+      <c r="M38" s="13">
+        <f>L38/COUNTA(H38:K38)</f>
+        <v>1.625</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C39" s="8">
+        <v>1</v>
+      </c>
+      <c r="D39" s="8">
+        <v>3</v>
+      </c>
+      <c r="E39" s="8"/>
+      <c r="F39" s="13">
+        <f>B39+C39+D39+E39</f>
+        <v>4.5</v>
+      </c>
+      <c r="G39" s="13">
+        <f>F39/COUNTA(B39:E39)</f>
+        <v>1.5</v>
+      </c>
+      <c r="H39" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="I39" s="8">
+        <v>1</v>
+      </c>
+      <c r="J39" s="8">
+        <v>3</v>
+      </c>
+      <c r="K39" s="8">
+        <v>1</v>
+      </c>
+      <c r="L39" s="13">
+        <f>H39+I39+J39+K39</f>
+        <v>5.5</v>
+      </c>
+      <c r="M39" s="13">
+        <f>L39/COUNTA(H39:K39)</f>
+        <v>1.375</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="C41" s="8">
+        <v>1</v>
+      </c>
+      <c r="D41" s="8">
+        <v>3</v>
+      </c>
+      <c r="E41" s="8"/>
+      <c r="F41" s="13">
+        <f>B41+C41+D41+E41</f>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G41" s="13">
+        <f>F41/COUNTA(B41:E41)</f>
+        <v>1.3666666666666665</v>
+      </c>
+      <c r="H41" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="I41" s="8">
+        <v>1</v>
+      </c>
+      <c r="J41" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="K41" s="8">
+        <v>1</v>
+      </c>
+      <c r="L41" s="13">
+        <f>H41+I41+J41+K41</f>
+        <v>3</v>
+      </c>
+      <c r="M41" s="13">
+        <f>L41/COUNTA(H41:K41)</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" s="8">
+        <v>1</v>
+      </c>
+      <c r="C42" s="8">
+        <v>1</v>
+      </c>
+      <c r="D42" s="8">
+        <v>3</v>
+      </c>
+      <c r="E42" s="8"/>
+      <c r="F42" s="13">
+        <f>B42+C42+D42+E42</f>
+        <v>5</v>
+      </c>
+      <c r="G42" s="13">
+        <f>F42/COUNTA(B42:E42)</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="H42" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="I42" s="8">
+        <v>4</v>
+      </c>
+      <c r="J42" s="8">
+        <v>1</v>
+      </c>
+      <c r="K42" s="8">
+        <v>1</v>
+      </c>
+      <c r="L42" s="13">
+        <f>H42+I42+J42+K42</f>
+        <v>6.5</v>
+      </c>
+      <c r="M42" s="13">
+        <f>L42/COUNTA(H42:K42)</f>
+        <v>1.625</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="C44" s="8">
+        <v>1</v>
+      </c>
+      <c r="D44" s="8">
+        <v>3</v>
+      </c>
+      <c r="E44" s="8"/>
+      <c r="F44" s="13">
+        <f>B44+C44+D44+E44</f>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G44" s="13">
+        <f>F44/COUNTA(B44:E44)</f>
+        <v>1.3666666666666665</v>
+      </c>
+      <c r="H44" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="I44" s="8">
+        <v>1</v>
+      </c>
+      <c r="J44" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="K44" s="8">
+        <v>1</v>
+      </c>
+      <c r="L44" s="13">
+        <f>H44+I44+J44+K44</f>
+        <v>3</v>
+      </c>
+      <c r="M44" s="13">
+        <f>L44/COUNTA(H44:K44)</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" s="12"/>
+      <c r="C45" s="8">
+        <v>3</v>
+      </c>
+      <c r="D45" s="8">
+        <v>5</v>
+      </c>
+      <c r="E45" s="8"/>
+      <c r="F45" s="13">
+        <f>B45+C45+D45+E45</f>
+        <v>8</v>
+      </c>
+      <c r="G45" s="13">
+        <f>F45/COUNTA(B45:E45)</f>
+        <v>4</v>
+      </c>
+      <c r="H45" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="I45" s="8">
+        <v>1</v>
+      </c>
+      <c r="J45" s="8">
+        <v>1</v>
+      </c>
+      <c r="K45" s="8">
+        <v>1</v>
+      </c>
+      <c r="L45" s="13">
+        <f>H45+I45+J45+K45</f>
+        <v>3.5</v>
+      </c>
+      <c r="M45" s="13">
+        <f>L45/COUNTA(H45:K45)</f>
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="6"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B47" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="C47" s="8">
+        <v>1</v>
+      </c>
+      <c r="D47" s="8">
+        <v>5</v>
+      </c>
+      <c r="E47" s="8"/>
+      <c r="F47" s="13">
+        <f>B47+C47+D47+E47</f>
+        <v>6.1</v>
+      </c>
+      <c r="G47" s="13">
+        <f>F47/COUNTA(B47:E47)</f>
+        <v>2.0333333333333332</v>
+      </c>
+      <c r="H47" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="I47" s="8">
+        <v>3</v>
+      </c>
+      <c r="J47" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="K47" s="8">
+        <v>1</v>
+      </c>
+      <c r="L47" s="13">
+        <f>H47+I47+J47+K47</f>
+        <v>5.25</v>
+      </c>
+      <c r="M47" s="13">
+        <f>L47/COUNTA(H47:K47)</f>
+        <v>1.3125</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B48" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="C48" s="8">
+        <v>1</v>
+      </c>
+      <c r="D48" s="8">
+        <v>3</v>
+      </c>
+      <c r="E48" s="8"/>
+      <c r="F48" s="13">
+        <f>B48+C48+D48+E48</f>
+        <v>4.2</v>
+      </c>
+      <c r="G48" s="13">
+        <f>F48/COUNTA(B48:E48)</f>
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="H48" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="I48" s="8">
+        <v>1</v>
+      </c>
+      <c r="J48" s="8">
+        <v>1</v>
+      </c>
+      <c r="K48" s="8">
+        <v>1</v>
+      </c>
+      <c r="L48" s="13">
+        <f>H48+I48+J48+K48</f>
+        <v>3.5</v>
+      </c>
+      <c r="M48" s="13">
+        <f>L48/COUNTA(H48:K48)</f>
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="6"/>
+      <c r="M49" s="6"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B50" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="C50" s="8">
+        <v>1</v>
+      </c>
+      <c r="D50" s="8">
+        <v>3</v>
+      </c>
+      <c r="E50" s="8"/>
+      <c r="F50" s="13">
+        <f>B50+C50+D50+E50</f>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G50" s="13">
+        <f>F50/COUNTA(B50:E50)</f>
+        <v>1.3666666666666665</v>
+      </c>
+      <c r="H50" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="I50" s="8">
+        <v>1</v>
+      </c>
+      <c r="J50" s="8">
+        <v>1</v>
+      </c>
+      <c r="K50" s="8">
+        <v>1</v>
+      </c>
+      <c r="L50" s="13">
+        <f>H50+I50+J50+K50</f>
+        <v>3.5</v>
+      </c>
+      <c r="M50" s="13">
+        <f t="shared" ref="M50:M53" si="3">L50/COUNTA(H50:K50)</f>
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B51" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="C51" s="8">
+        <v>1</v>
+      </c>
+      <c r="D51" s="8">
+        <v>3</v>
+      </c>
+      <c r="E51" s="8"/>
+      <c r="F51" s="13">
+        <f>B51+C51+D51+E51</f>
+        <v>4.2</v>
+      </c>
+      <c r="G51" s="13">
+        <f>F51/COUNTA(B51:E51)</f>
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="H51" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="I51" s="8">
+        <v>1</v>
+      </c>
+      <c r="J51" s="8">
+        <v>1</v>
+      </c>
+      <c r="K51" s="8">
+        <v>1</v>
+      </c>
+      <c r="L51" s="13">
+        <f>H51+I51+J51+K51</f>
+        <v>3.5</v>
+      </c>
+      <c r="M51" s="13">
+        <f t="shared" si="3"/>
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B52" s="13">
+        <f t="shared" ref="B52:F52" si="4">B38+B39+B41+B42+B44+B45+B47+B48+B50+B51</f>
+        <v>2.4000000000000004</v>
+      </c>
+      <c r="C52" s="13">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="D52" s="13">
+        <f t="shared" si="4"/>
+        <v>34</v>
+      </c>
+      <c r="E52" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F52" s="13">
+        <f t="shared" si="4"/>
+        <v>48.400000000000006</v>
+      </c>
+      <c r="G52" s="13">
+        <f>F52/COUNTA(B52:E52)</f>
+        <v>12.100000000000001</v>
+      </c>
+      <c r="H52" s="13">
+        <f t="shared" ref="H52:L52" si="5">H38+H39+H41+H42+H44+H45+H47+H48+H50+H51</f>
+        <v>6</v>
+      </c>
+      <c r="I52" s="13">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="J52" s="13">
+        <f t="shared" si="5"/>
+        <v>11.75</v>
+      </c>
+      <c r="K52" s="13">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="L52" s="13">
+        <f t="shared" si="5"/>
+        <v>43.75</v>
+      </c>
+      <c r="M52" s="13">
+        <f t="shared" si="3"/>
+        <v>10.9375</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B53" s="13">
+        <f>B52/COUNTA(B37:B51)</f>
+        <v>0.26666666666666672</v>
+      </c>
+      <c r="C53" s="13">
+        <f>C52/COUNTA(C37:C51)</f>
+        <v>1.2</v>
+      </c>
+      <c r="D53" s="13">
+        <f>D52/COUNTA(D37:D51)</f>
+        <v>3.4</v>
+      </c>
+      <c r="E53" s="13" t="e">
+        <f>E52/COUNTA(E37:E51)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F53" s="13">
+        <f>F52/COUNTA(F37:F51)</f>
+        <v>4.8400000000000007</v>
+      </c>
+      <c r="G53" s="13">
+        <f>F53/COUNTA(B53:E53)</f>
+        <v>1.2100000000000002</v>
+      </c>
+      <c r="H53" s="13">
+        <f>H52/COUNTA(H37:H51)</f>
+        <v>0.6</v>
+      </c>
+      <c r="I53" s="13">
+        <f>I52/COUNTA(I37:I51)</f>
+        <v>1.5</v>
+      </c>
+      <c r="J53" s="13">
+        <f>J52/COUNTA(J37:J51)</f>
+        <v>1.175</v>
+      </c>
+      <c r="K53" s="13">
+        <f>K52/COUNTA(K37:K51)</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L53" s="13">
+        <f>L52/COUNTA(L37:L51)</f>
+        <v>4.375</v>
+      </c>
+      <c r="M53" s="13">
+        <f t="shared" si="3"/>
+        <v>1.09375</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G55" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M55" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B56" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="C56" s="8">
+        <v>1</v>
+      </c>
+      <c r="D56" s="8">
+        <v>3</v>
+      </c>
+      <c r="E56" s="8"/>
+      <c r="F56">
+        <f>B56+C56+D56+E56</f>
+        <v>4.2</v>
+      </c>
+      <c r="G56">
+        <f>F56/COUNTA(B56:E56)</f>
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="H56" s="12"/>
+      <c r="I56" s="8">
+        <v>3</v>
+      </c>
+      <c r="J56" s="8">
+        <v>6</v>
+      </c>
+      <c r="K56" s="8">
+        <v>2</v>
+      </c>
+      <c r="L56">
+        <f>H56+I56+J56+K56</f>
+        <v>11</v>
+      </c>
+      <c r="M56">
+        <f>L56/COUNTA(H56:K56)</f>
+        <v>3.6666666666666665</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B57" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="C57" s="8">
+        <v>1</v>
+      </c>
+      <c r="D57" s="8">
+        <v>3</v>
+      </c>
+      <c r="E57" s="8"/>
+      <c r="F57">
+        <f>B57+C57+D57+E57</f>
+        <v>4.2</v>
+      </c>
+      <c r="G57">
+        <f>F57/COUNTA(B57:E57)</f>
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="H57" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="I57" s="8">
+        <v>1</v>
+      </c>
+      <c r="J57" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="K57" s="8">
+        <v>1</v>
+      </c>
+      <c r="L57">
+        <f>H57+I57+J57+K57</f>
+        <v>3.25</v>
+      </c>
+      <c r="M57">
+        <f>L57/COUNTA(H57:K57)</f>
+        <v>0.8125</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B58" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="C58" s="8">
+        <v>1</v>
+      </c>
+      <c r="D58" s="8">
+        <v>1</v>
+      </c>
+      <c r="E58" s="8"/>
+      <c r="F58">
+        <f>B58+C58+D58+E58</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G58">
+        <f>F58/COUNTA(B58:E58)</f>
+        <v>0.73333333333333339</v>
+      </c>
+      <c r="H58" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="I58" s="8">
+        <v>3</v>
+      </c>
+      <c r="J58" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="K58" s="8">
+        <v>1</v>
+      </c>
+      <c r="L58">
+        <f>H58+I58+J58+K58</f>
+        <v>5.25</v>
+      </c>
+      <c r="M58">
+        <f>L58/COUNTA(H58:K58)</f>
+        <v>1.3125</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B59" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="C59" s="8">
+        <v>1</v>
+      </c>
+      <c r="D59" s="8">
+        <v>3</v>
+      </c>
+      <c r="E59" s="8"/>
+      <c r="F59">
+        <f>B59+C59+D59+E59</f>
+        <v>4.2</v>
+      </c>
+      <c r="G59">
+        <f>F59/COUNTA(B59:E59)</f>
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="H59" s="12"/>
+      <c r="I59" s="11">
+        <v>5</v>
+      </c>
+      <c r="J59" s="8">
+        <v>3</v>
+      </c>
+      <c r="K59" s="8">
+        <v>1</v>
+      </c>
+      <c r="L59">
+        <f>H59+I59+J59+K59</f>
+        <v>9</v>
+      </c>
+      <c r="M59">
+        <f>L59/COUNTA(H59:K59)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B60" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="C60" s="8">
+        <v>1</v>
+      </c>
+      <c r="D60" s="8">
+        <v>3</v>
+      </c>
+      <c r="E60" s="8"/>
+      <c r="F60">
+        <f>B60+C60+D60+E60</f>
+        <v>4.2</v>
+      </c>
+      <c r="G60">
+        <f>F60/COUNTA(B60:E60)</f>
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="8">
+        <v>2</v>
+      </c>
+      <c r="K60" s="12"/>
+      <c r="L60">
+        <f>H60+I60+J60+K60</f>
+        <v>2</v>
+      </c>
+      <c r="M60">
+        <f>L60/COUNTA(H60:K60)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B61">
+        <f t="shared" ref="B61:F61" si="6">B56+B57+B58+B59+B60</f>
+        <v>1</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="G61">
+        <f>F61/COUNTA(B61:E61)</f>
+        <v>4.75</v>
+      </c>
+      <c r="H61">
+        <f t="shared" ref="H61:L61" si="7">H56+H57+H58+H59+H60</f>
+        <v>1</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="7"/>
+        <v>12.5</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="L61">
+        <f t="shared" si="7"/>
+        <v>30.5</v>
+      </c>
+      <c r="M61">
+        <f>L61/COUNTA(H61:K61)</f>
+        <v>7.625</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F62">
+        <f>F61/COUNTA(F56:F60)</f>
+        <v>3.8</v>
+      </c>
+      <c r="G62">
+        <f>G61/COUNTA(G56:G60)</f>
+        <v>0.95</v>
+      </c>
+      <c r="L62">
+        <f>L61/COUNTA(L56:L60)</f>
+        <v>6.1</v>
+      </c>
+      <c r="M62">
+        <f>M61/COUNTA(M56:M60)</f>
+        <v>1.5249999999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B64" t="e" cm="1">
+        <f t="array" ref="B64">F52/COUN</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B65">
+        <f>F61/COUNTA(B56:E60)</f>
+        <v>1.2666666666666666</v>
+      </c>
+      <c r="H65">
+        <f>L61/COUNTA(H56:K60)</f>
+        <v>2.0333333333333332</v>
+      </c>
+    </row>
+    <row r="1048576" spans="12:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="L1048576">
+        <f>H1048576+I1048576+J1048576+K1048576</f>
         <v>0</v>
       </c>
     </row>

--- a/src/検証結果.xlsx
+++ b/src/検証結果.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\devSCSA\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23528F49-8D85-4D95-AAE5-C953E1435889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="11370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,14 +36,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -59,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="44">
   <si>
     <t>検索内容</t>
     <rPh sb="0" eb="2">
@@ -240,11 +239,64 @@
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
+  <si>
+    <t>案件</t>
+    <rPh sb="0" eb="2">
+      <t>アンケン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>事務処理</t>
+    <rPh sb="0" eb="4">
+      <t>ジムショリ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>社内ナレッジ</t>
+    <rPh sb="0" eb="2">
+      <t>シャナイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>合計</t>
+    <rPh sb="0" eb="2">
+      <t>ゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>平均</t>
+    <rPh sb="0" eb="2">
+      <t>ヘイキン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>■未使用</t>
+    <rPh sb="1" eb="4">
+      <t>ミシヨウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>■使用</t>
+    <rPh sb="1" eb="3">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ソフトウェアインストール時の申請について</t>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -384,7 +436,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -428,11 +480,14 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="2" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="標準 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="標準 2" xfId="2"/>
+    <cellStyle name="標準 3" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -709,19 +764,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="65" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView tabSelected="1" topLeftCell="B52" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="S77" sqref="S77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="74.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -757,7 +812,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -793,7 +848,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
@@ -829,7 +884,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
@@ -865,7 +920,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
@@ -901,7 +956,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" s="9" t="s">
         <v>7</v>
       </c>
@@ -937,7 +992,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" s="9" t="s">
         <v>8</v>
       </c>
@@ -973,7 +1028,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
@@ -1009,7 +1064,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" s="7" t="s">
         <v>10</v>
       </c>
@@ -1045,7 +1100,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" s="7" t="s">
         <v>11</v>
       </c>
@@ -1079,7 +1134,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
@@ -1115,7 +1170,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12" s="7" t="s">
         <v>13</v>
       </c>
@@ -1151,7 +1206,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13" s="7" t="s">
         <v>14</v>
       </c>
@@ -1187,7 +1242,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14" s="5" t="s">
         <v>15</v>
       </c>
@@ -1223,7 +1278,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15" s="7" t="s">
         <v>16</v>
       </c>
@@ -1259,7 +1314,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16" s="7" t="s">
         <v>17</v>
       </c>
@@ -1295,7 +1350,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A17" s="14" t="s">
         <v>32</v>
       </c>
@@ -1341,7 +1396,7 @@
         <v>43.75</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>34</v>
       </c>
@@ -1354,7 +1409,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A19" s="4" t="s">
         <v>0</v>
       </c>
@@ -1367,7 +1422,7 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A20" s="7" t="s">
         <v>18</v>
       </c>
@@ -1400,7 +1455,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A21" s="7" t="s">
         <v>19</v>
       </c>
@@ -1435,7 +1490,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A22" s="7" t="s">
         <v>20</v>
       </c>
@@ -1470,7 +1525,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A23" s="7" t="s">
         <v>21</v>
       </c>
@@ -1503,7 +1558,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A24" s="7" t="s">
         <v>22</v>
       </c>
@@ -1532,7 +1587,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A25" s="14" t="s">
         <v>32</v>
       </c>
@@ -1577,7 +1632,7 @@
         <v>30.5</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
         <v>23</v>
       </c>
@@ -1590,7 +1645,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A27" s="3" t="s">
         <v>0</v>
       </c>
@@ -1603,7 +1658,7 @@
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A28" s="7" t="s">
         <v>24</v>
       </c>
@@ -1636,7 +1691,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A29" s="7" t="s">
         <v>25</v>
       </c>
@@ -1671,7 +1726,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A30" s="7" t="s">
         <v>26</v>
       </c>
@@ -1706,7 +1761,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A31" s="7" t="s">
         <v>27</v>
       </c>
@@ -1741,7 +1796,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A32" s="7" t="s">
         <v>28</v>
       </c>
@@ -1776,7 +1831,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A33" s="14" t="s">
         <v>32</v>
       </c>
@@ -1821,7 +1876,7 @@
         <v>15.75</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A36" s="3" t="s">
         <v>0</v>
       </c>
@@ -1862,7 +1917,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A37" s="5" t="s">
         <v>2</v>
       </c>
@@ -1879,7 +1934,7 @@
       <c r="L37" s="6"/>
       <c r="M37" s="6"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A38" s="7" t="s">
         <v>4</v>
       </c>
@@ -1892,14 +1947,16 @@
       <c r="D38" s="8">
         <v>3</v>
       </c>
-      <c r="E38" s="8"/>
+      <c r="E38" s="8">
+        <v>2</v>
+      </c>
       <c r="F38" s="13">
         <f>B38+C38+D38+E38</f>
-        <v>4.0999999999999996</v>
+        <v>6.1</v>
       </c>
       <c r="G38" s="13">
         <f>F38/COUNTA(B38:E38)</f>
-        <v>1.3666666666666665</v>
+        <v>1.5249999999999999</v>
       </c>
       <c r="H38" s="8">
         <v>1.5</v>
@@ -1922,7 +1979,7 @@
         <v>1.625</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A39" s="7" t="s">
         <v>5</v>
       </c>
@@ -1935,14 +1992,16 @@
       <c r="D39" s="8">
         <v>3</v>
       </c>
-      <c r="E39" s="8"/>
+      <c r="E39" s="8">
+        <v>1</v>
+      </c>
       <c r="F39" s="13">
         <f>B39+C39+D39+E39</f>
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="G39" s="13">
         <f>F39/COUNTA(B39:E39)</f>
-        <v>1.5</v>
+        <v>1.375</v>
       </c>
       <c r="H39" s="8">
         <v>0.5</v>
@@ -1965,7 +2024,7 @@
         <v>1.375</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A40" s="5" t="s">
         <v>6</v>
       </c>
@@ -1982,7 +2041,7 @@
       <c r="L40" s="6"/>
       <c r="M40" s="6"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A41" s="9" t="s">
         <v>7</v>
       </c>
@@ -1995,14 +2054,16 @@
       <c r="D41" s="8">
         <v>3</v>
       </c>
-      <c r="E41" s="8"/>
+      <c r="E41" s="8">
+        <v>0.5</v>
+      </c>
       <c r="F41" s="13">
         <f>B41+C41+D41+E41</f>
-        <v>4.0999999999999996</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="G41" s="13">
         <f>F41/COUNTA(B41:E41)</f>
-        <v>1.3666666666666665</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="H41" s="8">
         <v>0.5</v>
@@ -2025,7 +2086,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A42" s="9" t="s">
         <v>8</v>
       </c>
@@ -2038,14 +2099,16 @@
       <c r="D42" s="8">
         <v>3</v>
       </c>
-      <c r="E42" s="8"/>
+      <c r="E42" s="8">
+        <v>2</v>
+      </c>
       <c r="F42" s="13">
         <f>B42+C42+D42+E42</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G42" s="13">
         <f>F42/COUNTA(B42:E42)</f>
-        <v>1.6666666666666667</v>
+        <v>1.75</v>
       </c>
       <c r="H42" s="8">
         <v>0.5</v>
@@ -2068,7 +2131,7 @@
         <v>1.625</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A43" s="5" t="s">
         <v>9</v>
       </c>
@@ -2085,7 +2148,7 @@
       <c r="L43" s="6"/>
       <c r="M43" s="6"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A44" s="7" t="s">
         <v>10</v>
       </c>
@@ -2098,14 +2161,16 @@
       <c r="D44" s="8">
         <v>3</v>
       </c>
-      <c r="E44" s="8"/>
+      <c r="E44" s="8">
+        <v>2</v>
+      </c>
       <c r="F44" s="13">
         <f>B44+C44+D44+E44</f>
-        <v>4.0999999999999996</v>
+        <v>6.1</v>
       </c>
       <c r="G44" s="13">
         <f>F44/COUNTA(B44:E44)</f>
-        <v>1.3666666666666665</v>
+        <v>1.5249999999999999</v>
       </c>
       <c r="H44" s="8">
         <v>0.5</v>
@@ -2128,7 +2193,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A45" s="7" t="s">
         <v>11</v>
       </c>
@@ -2139,14 +2204,16 @@
       <c r="D45" s="8">
         <v>5</v>
       </c>
-      <c r="E45" s="8"/>
+      <c r="E45" s="8">
+        <v>6</v>
+      </c>
       <c r="F45" s="13">
         <f>B45+C45+D45+E45</f>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G45" s="13">
         <f>F45/COUNTA(B45:E45)</f>
-        <v>4</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="H45" s="8">
         <v>0.5</v>
@@ -2169,7 +2236,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A46" s="5" t="s">
         <v>12</v>
       </c>
@@ -2186,7 +2253,7 @@
       <c r="L46" s="6"/>
       <c r="M46" s="6"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A47" s="7" t="s">
         <v>13</v>
       </c>
@@ -2199,14 +2266,16 @@
       <c r="D47" s="8">
         <v>5</v>
       </c>
-      <c r="E47" s="8"/>
+      <c r="E47" s="8">
+        <v>2</v>
+      </c>
       <c r="F47" s="13">
         <f>B47+C47+D47+E47</f>
-        <v>6.1</v>
+        <v>8.1</v>
       </c>
       <c r="G47" s="13">
         <f>F47/COUNTA(B47:E47)</f>
-        <v>2.0333333333333332</v>
+        <v>2.0249999999999999</v>
       </c>
       <c r="H47" s="8">
         <v>0.5</v>
@@ -2229,7 +2298,7 @@
         <v>1.3125</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A48" s="7" t="s">
         <v>14</v>
       </c>
@@ -2242,14 +2311,16 @@
       <c r="D48" s="8">
         <v>3</v>
       </c>
-      <c r="E48" s="8"/>
+      <c r="E48" s="8">
+        <v>0.5</v>
+      </c>
       <c r="F48" s="13">
         <f>B48+C48+D48+E48</f>
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="G48" s="13">
         <f>F48/COUNTA(B48:E48)</f>
-        <v>1.4000000000000001</v>
+        <v>1.175</v>
       </c>
       <c r="H48" s="8">
         <v>0.5</v>
@@ -2272,7 +2343,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A49" s="5" t="s">
         <v>15</v>
       </c>
@@ -2289,7 +2360,7 @@
       <c r="L49" s="6"/>
       <c r="M49" s="6"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A50" s="7" t="s">
         <v>16</v>
       </c>
@@ -2302,14 +2373,16 @@
       <c r="D50" s="8">
         <v>3</v>
       </c>
-      <c r="E50" s="8"/>
+      <c r="E50" s="8">
+        <v>2</v>
+      </c>
       <c r="F50" s="13">
         <f>B50+C50+D50+E50</f>
-        <v>4.0999999999999996</v>
+        <v>6.1</v>
       </c>
       <c r="G50" s="13">
         <f>F50/COUNTA(B50:E50)</f>
-        <v>1.3666666666666665</v>
+        <v>1.5249999999999999</v>
       </c>
       <c r="H50" s="8">
         <v>0.5</v>
@@ -2332,7 +2405,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A51" s="7" t="s">
         <v>17</v>
       </c>
@@ -2345,14 +2418,16 @@
       <c r="D51" s="8">
         <v>3</v>
       </c>
-      <c r="E51" s="8"/>
+      <c r="E51" s="8">
+        <v>0.5</v>
+      </c>
       <c r="F51" s="13">
         <f>B51+C51+D51+E51</f>
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="G51" s="13">
         <f>F51/COUNTA(B51:E51)</f>
-        <v>1.4000000000000001</v>
+        <v>1.175</v>
       </c>
       <c r="H51" s="8">
         <v>0.5</v>
@@ -2375,7 +2450,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A52" s="5" t="s">
         <v>32</v>
       </c>
@@ -2393,15 +2468,15 @@
       </c>
       <c r="E52" s="13">
         <f t="shared" ref="E52" si="7">E38+E39+E41+E42+E44+E45+E47+E48+E50+E51</f>
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="F52" s="13">
         <f t="shared" ref="F52" si="8">F38+F39+F41+F42+F44+F45+F47+F48+F50+F51</f>
-        <v>48.400000000000006</v>
+        <v>66.900000000000006</v>
       </c>
       <c r="G52" s="13">
         <f>F52/COUNTA(B52:E52)</f>
-        <v>12.100000000000001</v>
+        <v>16.725000000000001</v>
       </c>
       <c r="H52" s="13">
         <f t="shared" ref="H52" si="9">H38+H39+H41+H42+H44+H45+H47+H48+H50+H51</f>
@@ -2428,7 +2503,7 @@
         <v>10.9375</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A53" s="5" t="s">
         <v>35</v>
       </c>
@@ -2444,17 +2519,17 @@
         <f>D52/COUNTA(D37:D51)</f>
         <v>3.4</v>
       </c>
-      <c r="E53" s="13" t="e">
+      <c r="E53" s="13">
         <f>E52/COUNTA(E37:E51)</f>
-        <v>#DIV/0!</v>
+        <v>1.85</v>
       </c>
       <c r="F53" s="13">
         <f>F52/COUNTA(F37:F51)</f>
-        <v>4.8400000000000007</v>
+        <v>6.69</v>
       </c>
       <c r="G53" s="13">
         <f>F53/COUNTA(B53:E53)</f>
-        <v>1.2100000000000002</v>
+        <v>1.6725000000000001</v>
       </c>
       <c r="H53" s="13">
         <f>H52/COUNTA(H37:H51)</f>
@@ -2481,7 +2556,7 @@
         <v>1.09375</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A55" s="4" t="s">
         <v>0</v>
       </c>
@@ -2506,7 +2581,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A56" s="7" t="s">
         <v>18</v>
       </c>
@@ -2519,14 +2594,16 @@
       <c r="D56" s="8">
         <v>3</v>
       </c>
-      <c r="E56" s="8"/>
+      <c r="E56" s="8">
+        <v>0.5</v>
+      </c>
       <c r="F56">
         <f>B56+C56+D56+E56</f>
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="G56">
-        <f>F56/COUNTA(B56:E56)</f>
-        <v>1.4000000000000001</v>
+        <f t="shared" ref="G56:G61" si="14">F56/COUNTA(B56:E56)</f>
+        <v>1.175</v>
       </c>
       <c r="H56" s="12"/>
       <c r="I56" s="8">
@@ -2543,11 +2620,11 @@
         <v>11</v>
       </c>
       <c r="M56">
-        <f>L56/COUNTA(H56:K56)</f>
+        <f t="shared" ref="M56:M61" si="15">L56/COUNTA(H56:K56)</f>
         <v>3.6666666666666665</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A57" s="7" t="s">
         <v>19</v>
       </c>
@@ -2560,14 +2637,16 @@
       <c r="D57" s="8">
         <v>3</v>
       </c>
-      <c r="E57" s="8"/>
+      <c r="E57" s="8">
+        <v>0.5</v>
+      </c>
       <c r="F57">
         <f>B57+C57+D57+E57</f>
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="G57">
-        <f>F57/COUNTA(B57:E57)</f>
-        <v>1.4000000000000001</v>
+        <f t="shared" si="14"/>
+        <v>1.175</v>
       </c>
       <c r="H57" s="8">
         <v>0.5</v>
@@ -2586,11 +2665,11 @@
         <v>3.25</v>
       </c>
       <c r="M57">
-        <f>L57/COUNTA(H57:K57)</f>
+        <f t="shared" si="15"/>
         <v>0.8125</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A58" s="7" t="s">
         <v>20</v>
       </c>
@@ -2603,14 +2682,16 @@
       <c r="D58" s="8">
         <v>1</v>
       </c>
-      <c r="E58" s="8"/>
+      <c r="E58" s="8">
+        <v>0.5</v>
+      </c>
       <c r="F58">
         <f>B58+C58+D58+E58</f>
-        <v>2.2000000000000002</v>
+        <v>2.7</v>
       </c>
       <c r="G58">
-        <f>F58/COUNTA(B58:E58)</f>
-        <v>0.73333333333333339</v>
+        <f t="shared" si="14"/>
+        <v>0.67500000000000004</v>
       </c>
       <c r="H58" s="8">
         <v>0.5</v>
@@ -2629,11 +2710,11 @@
         <v>5.25</v>
       </c>
       <c r="M58">
-        <f>L58/COUNTA(H58:K58)</f>
+        <f t="shared" si="15"/>
         <v>1.3125</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A59" s="7" t="s">
         <v>21</v>
       </c>
@@ -2646,14 +2727,16 @@
       <c r="D59" s="8">
         <v>3</v>
       </c>
-      <c r="E59" s="8"/>
+      <c r="E59" s="8">
+        <v>0.5</v>
+      </c>
       <c r="F59">
         <f>B59+C59+D59+E59</f>
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="G59">
-        <f>F59/COUNTA(B59:E59)</f>
-        <v>1.4000000000000001</v>
+        <f t="shared" si="14"/>
+        <v>1.175</v>
       </c>
       <c r="H59" s="12"/>
       <c r="I59" s="11">
@@ -2670,13 +2753,13 @@
         <v>9</v>
       </c>
       <c r="M59">
-        <f>L59/COUNTA(H59:K59)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="7" t="s">
-        <v>22</v>
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A60" s="15" t="s">
+        <v>43</v>
       </c>
       <c r="B60" s="8">
         <v>0.2</v>
@@ -2687,14 +2770,16 @@
       <c r="D60" s="8">
         <v>3</v>
       </c>
-      <c r="E60" s="8"/>
+      <c r="E60" s="8">
+        <v>0.5</v>
+      </c>
       <c r="F60">
         <f>B60+C60+D60+E60</f>
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="G60">
-        <f>F60/COUNTA(B60:E60)</f>
-        <v>1.4000000000000001</v>
+        <f t="shared" si="14"/>
+        <v>1.175</v>
       </c>
       <c r="H60" s="12"/>
       <c r="I60" s="12"/>
@@ -2707,74 +2792,74 @@
         <v>2</v>
       </c>
       <c r="M60">
-        <f>L60/COUNTA(H60:K60)</f>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A61" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B61">
-        <f t="shared" ref="B61" si="14">B56+B57+B58+B59+B60</f>
+        <f t="shared" ref="B61" si="16">B56+B57+B58+B59+B60</f>
         <v>1</v>
       </c>
       <c r="C61">
-        <f t="shared" ref="C61" si="15">C56+C57+C58+C59+C60</f>
+        <f t="shared" ref="C61" si="17">C56+C57+C58+C59+C60</f>
         <v>5</v>
       </c>
       <c r="D61">
-        <f t="shared" ref="D61" si="16">D56+D57+D58+D59+D60</f>
+        <f t="shared" ref="D61" si="18">D56+D57+D58+D59+D60</f>
         <v>13</v>
       </c>
       <c r="E61">
-        <f t="shared" ref="E61" si="17">E56+E57+E58+E59+E60</f>
-        <v>0</v>
+        <f t="shared" ref="E61" si="19">E56+E57+E58+E59+E60</f>
+        <v>2.5</v>
       </c>
       <c r="F61">
-        <f t="shared" ref="F61" si="18">F56+F57+F58+F59+F60</f>
-        <v>19</v>
+        <f t="shared" ref="F61" si="20">F56+F57+F58+F59+F60</f>
+        <v>21.5</v>
       </c>
       <c r="G61">
-        <f>F61/COUNTA(B61:E61)</f>
-        <v>4.75</v>
+        <f t="shared" si="14"/>
+        <v>5.375</v>
       </c>
       <c r="H61">
-        <f t="shared" ref="H61" si="19">H56+H57+H58+H59+H60</f>
+        <f t="shared" ref="H61" si="21">H56+H57+H58+H59+H60</f>
         <v>1</v>
       </c>
       <c r="I61">
-        <f t="shared" ref="I61" si="20">I56+I57+I58+I59+I60</f>
+        <f t="shared" ref="I61" si="22">I56+I57+I58+I59+I60</f>
         <v>12</v>
       </c>
       <c r="J61">
-        <f t="shared" ref="J61" si="21">J56+J57+J58+J59+J60</f>
+        <f t="shared" ref="J61" si="23">J56+J57+J58+J59+J60</f>
         <v>12.5</v>
       </c>
       <c r="K61">
-        <f t="shared" ref="K61" si="22">K56+K57+K58+K59+K60</f>
+        <f t="shared" ref="K61" si="24">K56+K57+K58+K59+K60</f>
         <v>5</v>
       </c>
       <c r="L61">
-        <f t="shared" ref="L61" si="23">L56+L57+L58+L59+L60</f>
+        <f t="shared" ref="L61" si="25">L56+L57+L58+L59+L60</f>
         <v>30.5</v>
       </c>
       <c r="M61">
-        <f>L61/COUNTA(H61:K61)</f>
+        <f t="shared" si="15"/>
         <v>7.625</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A62" s="5" t="s">
         <v>35</v>
       </c>
       <c r="F62">
         <f>F61/COUNTA(F56:F60)</f>
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="G62">
         <f>G61/COUNTA(G56:G60)</f>
-        <v>0.95</v>
+        <v>1.075</v>
       </c>
       <c r="L62">
         <f>L61/COUNTA(L56:L60)</f>
@@ -2785,7 +2870,7 @@
         <v>1.5249999999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A64" s="3" t="s">
         <v>0</v>
       </c>
@@ -2798,7 +2883,7 @@
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A65" s="7" t="s">
         <v>24</v>
       </c>
@@ -2811,10 +2896,12 @@
       <c r="D65" s="8">
         <v>3</v>
       </c>
-      <c r="E65" s="8"/>
+      <c r="E65" s="8">
+        <v>0.5</v>
+      </c>
       <c r="F65">
         <f>B65+C65+D65+E65</f>
-        <v>5.2</v>
+        <v>5.7</v>
       </c>
       <c r="H65" s="12"/>
       <c r="I65" s="8">
@@ -2831,7 +2918,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A66" s="7" t="s">
         <v>25</v>
       </c>
@@ -2844,10 +2931,12 @@
       <c r="D66" s="8">
         <v>3</v>
       </c>
-      <c r="E66" s="8"/>
+      <c r="E66" s="8">
+        <v>0.5</v>
+      </c>
       <c r="F66">
         <f>B66+C66+D66+E66</f>
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="H66" s="8">
         <v>0.5</v>
@@ -2866,7 +2955,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A67" s="7" t="s">
         <v>26</v>
       </c>
@@ -2879,10 +2968,12 @@
       <c r="D67" s="8">
         <v>3</v>
       </c>
-      <c r="E67" s="8"/>
+      <c r="E67" s="8">
+        <v>0.5</v>
+      </c>
       <c r="F67">
         <f>B67+C67+D67+E67</f>
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="H67" s="8">
         <v>0.5</v>
@@ -2901,7 +2992,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A68" s="7" t="s">
         <v>27</v>
       </c>
@@ -2914,10 +3005,12 @@
       <c r="D68" s="8">
         <v>3</v>
       </c>
-      <c r="E68" s="8"/>
+      <c r="E68" s="8">
+        <v>2</v>
+      </c>
       <c r="F68">
         <f>B68+C68+D68+E68</f>
-        <v>6.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="H68" s="8">
         <v>0.5</v>
@@ -2936,7 +3029,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A69" s="7" t="s">
         <v>28</v>
       </c>
@@ -2949,10 +3042,12 @@
       <c r="D69" s="8">
         <v>5</v>
       </c>
-      <c r="E69" s="8"/>
+      <c r="E69" s="8">
+        <v>1</v>
+      </c>
       <c r="F69">
         <f>B69+C69+D69+E69</f>
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="H69" s="8">
         <v>0.5</v>
@@ -2971,82 +3066,152 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A70" s="14" t="s">
         <v>32</v>
       </c>
       <c r="B70">
-        <f t="shared" ref="B70" si="24">B65+B66+B67+B68+B69</f>
+        <f t="shared" ref="B70" si="26">B65+B66+B67+B68+B69</f>
         <v>1.5999999999999999</v>
       </c>
       <c r="C70">
-        <f t="shared" ref="C70" si="25">C65+C66+C67+C68+C69</f>
+        <f t="shared" ref="C70" si="27">C65+C66+C67+C68+C69</f>
         <v>11</v>
       </c>
       <c r="D70">
-        <f t="shared" ref="D70" si="26">D65+D66+D67+D68+D69</f>
+        <f t="shared" ref="D70" si="28">D65+D66+D67+D68+D69</f>
         <v>17</v>
       </c>
       <c r="E70">
-        <f t="shared" ref="E70" si="27">E65+E66+E67+E68+E69</f>
-        <v>0</v>
+        <f t="shared" ref="E70" si="29">E65+E66+E67+E68+E69</f>
+        <v>4.5</v>
       </c>
       <c r="F70">
-        <f t="shared" ref="F70" si="28">F65+F66+F67+F68+F69</f>
-        <v>29.599999999999998</v>
+        <f t="shared" ref="F70" si="30">F65+F66+F67+F68+F69</f>
+        <v>34.099999999999994</v>
       </c>
       <c r="H70">
-        <f t="shared" ref="H70" si="29">H65+H66+H67+H68+H69</f>
+        <f t="shared" ref="H70" si="31">H65+H66+H67+H68+H69</f>
         <v>2</v>
       </c>
       <c r="I70">
-        <f t="shared" ref="I70" si="30">I65+I66+I67+I68+I69</f>
+        <f t="shared" ref="I70" si="32">I65+I66+I67+I68+I69</f>
         <v>5</v>
       </c>
       <c r="J70">
-        <f t="shared" ref="J70" si="31">J65+J66+J67+J68+J69</f>
+        <f t="shared" ref="J70" si="33">J65+J66+J67+J68+J69</f>
         <v>3.75</v>
       </c>
       <c r="K70">
-        <f t="shared" ref="K70" si="32">K65+K66+K67+K68+K69</f>
+        <f t="shared" ref="K70" si="34">K65+K66+K67+K68+K69</f>
         <v>5</v>
       </c>
       <c r="L70">
-        <f t="shared" ref="L70" si="33">L65+L66+L67+L68+L69</f>
+        <f t="shared" ref="L70" si="35">L65+L66+L67+L68+L69</f>
         <v>15.75</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="E72" t="s">
+        <v>41</v>
+      </c>
+      <c r="K72" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="E73" t="s">
+        <v>36</v>
+      </c>
       <c r="F73">
         <f>F52/COUNTA(B37:E51)</f>
-        <v>1.6689655172413795</v>
+        <v>1.7153846153846155</v>
+      </c>
+      <c r="K73" t="s">
+        <v>36</v>
       </c>
       <c r="L73">
         <f>L52/COUNTA(H38:K51)</f>
         <v>1.09375</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="E74" t="s">
+        <v>37</v>
+      </c>
       <c r="F74">
         <f>F61/COUNTA(B56:E60)</f>
-        <v>1.2666666666666666</v>
+        <v>1.075</v>
+      </c>
+      <c r="K74" t="s">
+        <v>37</v>
       </c>
       <c r="L74">
         <f>L61/COUNTA(H56:K60)</f>
         <v>2.0333333333333332</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="E75" t="s">
+        <v>38</v>
+      </c>
       <c r="F75">
         <f>F70/COUNTA(B65:E69)</f>
-        <v>1.9733333333333332</v>
+        <v>1.7049999999999996</v>
+      </c>
+      <c r="K75" t="s">
+        <v>38</v>
       </c>
       <c r="L75">
         <f>L70/COUNTA(H65:K69)</f>
         <v>0.82894736842105265</v>
       </c>
     </row>
-    <row r="1048576" spans="12:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="E76" t="s">
+        <v>39</v>
+      </c>
+      <c r="F76">
+        <f>F73+F74+F75</f>
+        <v>4.4953846153846158</v>
+      </c>
+      <c r="K76" t="s">
+        <v>39</v>
+      </c>
+      <c r="L76">
+        <f>L73+L74+L75</f>
+        <v>3.9560307017543859</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="E77" t="s">
+        <v>40</v>
+      </c>
+      <c r="F77">
+        <f>F76/3</f>
+        <v>1.4984615384615385</v>
+      </c>
+      <c r="K77" t="s">
+        <v>40</v>
+      </c>
+      <c r="L77">
+        <f>L76/3</f>
+        <v>1.3186769005847954</v>
+      </c>
+    </row>
+    <row r="81" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E81">
+        <f>(F73-L73)/F73*100</f>
+        <v>36.238789237668165</v>
+      </c>
+    </row>
+    <row r="82" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E82">
+        <f>(F75-L75)/F75*100</f>
+        <v>51.381386016360544</v>
+      </c>
+    </row>
+    <row r="1048576" spans="12:12" x14ac:dyDescent="0.4">
       <c r="L1048576">
         <f>H1048576+I1048576+J1048576+K1048576</f>
         <v>0</v>
@@ -3060,19 +3225,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC20AD32-AC5F-44E2-9983-7907C4DEBD31}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M1048576"/>
   <sheetViews>
     <sheetView topLeftCell="A15" zoomScale="84" workbookViewId="0">
       <selection activeCell="A36" sqref="A36:XFD65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="74.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3108,7 +3273,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -3144,7 +3309,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
@@ -3180,7 +3345,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
@@ -3216,7 +3381,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
@@ -3252,7 +3417,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" s="9" t="s">
         <v>7</v>
       </c>
@@ -3288,7 +3453,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" s="9" t="s">
         <v>8</v>
       </c>
@@ -3324,7 +3489,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
@@ -3360,7 +3525,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" s="7" t="s">
         <v>10</v>
       </c>
@@ -3396,7 +3561,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" s="7" t="s">
         <v>11</v>
       </c>
@@ -3430,7 +3595,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
@@ -3466,7 +3631,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12" s="7" t="s">
         <v>13</v>
       </c>
@@ -3502,7 +3667,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13" s="7" t="s">
         <v>14</v>
       </c>
@@ -3538,7 +3703,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14" s="5" t="s">
         <v>15</v>
       </c>
@@ -3574,7 +3739,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15" s="7" t="s">
         <v>16</v>
       </c>
@@ -3610,7 +3775,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16" s="7" t="s">
         <v>17</v>
       </c>
@@ -3646,7 +3811,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A17" s="14" t="s">
         <v>32</v>
       </c>
@@ -3692,7 +3857,7 @@
         <v>43.75</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>34</v>
       </c>
@@ -3705,7 +3870,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A19" s="4" t="s">
         <v>0</v>
       </c>
@@ -3718,7 +3883,7 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A20" s="7" t="s">
         <v>18</v>
       </c>
@@ -3751,7 +3916,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A21" s="7" t="s">
         <v>19</v>
       </c>
@@ -3786,7 +3951,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A22" s="7" t="s">
         <v>20</v>
       </c>
@@ -3821,7 +3986,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A23" s="7" t="s">
         <v>21</v>
       </c>
@@ -3854,7 +4019,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A24" s="7" t="s">
         <v>22</v>
       </c>
@@ -3883,7 +4048,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A25" s="14" t="s">
         <v>32</v>
       </c>
@@ -3928,7 +4093,7 @@
         <v>30.5</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
         <v>23</v>
       </c>
@@ -3941,7 +4106,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A27" s="3" t="s">
         <v>0</v>
       </c>
@@ -3954,7 +4119,7 @@
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A28" s="7" t="s">
         <v>24</v>
       </c>
@@ -3987,7 +4152,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A29" s="7" t="s">
         <v>25</v>
       </c>
@@ -4022,7 +4187,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A30" s="7" t="s">
         <v>26</v>
       </c>
@@ -4057,7 +4222,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A31" s="7" t="s">
         <v>27</v>
       </c>
@@ -4092,7 +4257,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A32" s="7" t="s">
         <v>28</v>
       </c>
@@ -4127,7 +4292,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A33" s="14" t="s">
         <v>32</v>
       </c>
@@ -4172,7 +4337,7 @@
         <v>15.75</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A36" s="3" t="s">
         <v>0</v>
       </c>
@@ -4213,7 +4378,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A37" s="5" t="s">
         <v>2</v>
       </c>
@@ -4230,7 +4395,7 @@
       <c r="L37" s="6"/>
       <c r="M37" s="6"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A38" s="7" t="s">
         <v>4</v>
       </c>
@@ -4273,7 +4438,7 @@
         <v>1.625</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A39" s="7" t="s">
         <v>5</v>
       </c>
@@ -4316,7 +4481,7 @@
         <v>1.375</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A40" s="5" t="s">
         <v>6</v>
       </c>
@@ -4333,7 +4498,7 @@
       <c r="L40" s="6"/>
       <c r="M40" s="6"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A41" s="9" t="s">
         <v>7</v>
       </c>
@@ -4376,7 +4541,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A42" s="9" t="s">
         <v>8</v>
       </c>
@@ -4419,7 +4584,7 @@
         <v>1.625</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A43" s="5" t="s">
         <v>9</v>
       </c>
@@ -4436,7 +4601,7 @@
       <c r="L43" s="6"/>
       <c r="M43" s="6"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A44" s="7" t="s">
         <v>10</v>
       </c>
@@ -4479,7 +4644,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A45" s="7" t="s">
         <v>11</v>
       </c>
@@ -4520,7 +4685,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A46" s="5" t="s">
         <v>12</v>
       </c>
@@ -4537,7 +4702,7 @@
       <c r="L46" s="6"/>
       <c r="M46" s="6"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A47" s="7" t="s">
         <v>13</v>
       </c>
@@ -4580,7 +4745,7 @@
         <v>1.3125</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A48" s="7" t="s">
         <v>14</v>
       </c>
@@ -4623,7 +4788,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A49" s="5" t="s">
         <v>15</v>
       </c>
@@ -4640,7 +4805,7 @@
       <c r="L49" s="6"/>
       <c r="M49" s="6"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A50" s="7" t="s">
         <v>16</v>
       </c>
@@ -4683,7 +4848,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A51" s="7" t="s">
         <v>17</v>
       </c>
@@ -4726,7 +4891,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A52" s="5" t="s">
         <v>32</v>
       </c>
@@ -4779,7 +4944,7 @@
         <v>10.9375</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A53" s="5" t="s">
         <v>35</v>
       </c>
@@ -4832,7 +4997,7 @@
         <v>1.09375</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A55" s="4" t="s">
         <v>0</v>
       </c>
@@ -4857,7 +5022,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A56" s="7" t="s">
         <v>18</v>
       </c>
@@ -4876,7 +5041,7 @@
         <v>4.2</v>
       </c>
       <c r="G56">
-        <f>F56/COUNTA(B56:E56)</f>
+        <f t="shared" ref="G56:G61" si="6">F56/COUNTA(B56:E56)</f>
         <v>1.4000000000000001</v>
       </c>
       <c r="H56" s="12"/>
@@ -4894,11 +5059,11 @@
         <v>11</v>
       </c>
       <c r="M56">
-        <f>L56/COUNTA(H56:K56)</f>
+        <f t="shared" ref="M56:M61" si="7">L56/COUNTA(H56:K56)</f>
         <v>3.6666666666666665</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A57" s="7" t="s">
         <v>19</v>
       </c>
@@ -4917,7 +5082,7 @@
         <v>4.2</v>
       </c>
       <c r="G57">
-        <f>F57/COUNTA(B57:E57)</f>
+        <f t="shared" si="6"/>
         <v>1.4000000000000001</v>
       </c>
       <c r="H57" s="8">
@@ -4937,11 +5102,11 @@
         <v>3.25</v>
       </c>
       <c r="M57">
-        <f>L57/COUNTA(H57:K57)</f>
+        <f t="shared" si="7"/>
         <v>0.8125</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A58" s="7" t="s">
         <v>20</v>
       </c>
@@ -4960,7 +5125,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="G58">
-        <f>F58/COUNTA(B58:E58)</f>
+        <f t="shared" si="6"/>
         <v>0.73333333333333339</v>
       </c>
       <c r="H58" s="8">
@@ -4980,11 +5145,11 @@
         <v>5.25</v>
       </c>
       <c r="M58">
-        <f>L58/COUNTA(H58:K58)</f>
+        <f t="shared" si="7"/>
         <v>1.3125</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A59" s="7" t="s">
         <v>21</v>
       </c>
@@ -5003,7 +5168,7 @@
         <v>4.2</v>
       </c>
       <c r="G59">
-        <f>F59/COUNTA(B59:E59)</f>
+        <f t="shared" si="6"/>
         <v>1.4000000000000001</v>
       </c>
       <c r="H59" s="12"/>
@@ -5021,11 +5186,11 @@
         <v>9</v>
       </c>
       <c r="M59">
-        <f>L59/COUNTA(H59:K59)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A60" s="7" t="s">
         <v>22</v>
       </c>
@@ -5044,7 +5209,7 @@
         <v>4.2</v>
       </c>
       <c r="G60">
-        <f>F60/COUNTA(B60:E60)</f>
+        <f t="shared" si="6"/>
         <v>1.4000000000000001</v>
       </c>
       <c r="H60" s="12"/>
@@ -5058,64 +5223,64 @@
         <v>2</v>
       </c>
       <c r="M60">
-        <f>L60/COUNTA(H60:K60)</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A61" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B61">
-        <f t="shared" ref="B61:F61" si="6">B56+B57+B58+B59+B60</f>
+        <f t="shared" ref="B61:F61" si="8">B56+B57+B58+B59+B60</f>
         <v>1</v>
       </c>
       <c r="C61">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="8"/>
+        <v>13</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="8"/>
+        <v>19</v>
+      </c>
+      <c r="G61">
         <f t="shared" si="6"/>
+        <v>4.75</v>
+      </c>
+      <c r="H61">
+        <f t="shared" ref="H61:L61" si="9">H56+H57+H58+H59+H60</f>
+        <v>1</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="9"/>
+        <v>12.5</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="D61">
-        <f t="shared" si="6"/>
-        <v>13</v>
-      </c>
-      <c r="E61">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F61">
-        <f t="shared" si="6"/>
-        <v>19</v>
-      </c>
-      <c r="G61">
-        <f>F61/COUNTA(B61:E61)</f>
-        <v>4.75</v>
-      </c>
-      <c r="H61">
-        <f t="shared" ref="H61:L61" si="7">H56+H57+H58+H59+H60</f>
-        <v>1</v>
-      </c>
-      <c r="I61">
+      <c r="L61">
+        <f t="shared" si="9"/>
+        <v>30.5</v>
+      </c>
+      <c r="M61">
         <f t="shared" si="7"/>
-        <v>12</v>
-      </c>
-      <c r="J61">
-        <f t="shared" si="7"/>
-        <v>12.5</v>
-      </c>
-      <c r="K61">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="L61">
-        <f t="shared" si="7"/>
-        <v>30.5</v>
-      </c>
-      <c r="M61">
-        <f>L61/COUNTA(H61:K61)</f>
         <v>7.625</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A62" s="5" t="s">
         <v>35</v>
       </c>
@@ -5136,13 +5301,13 @@
         <v>1.5249999999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B64" t="e" cm="1">
         <f t="array" ref="B64">F52/COUN</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B65">
         <f>F61/COUNTA(B56:E60)</f>
         <v>1.2666666666666666</v>
@@ -5152,7 +5317,7 @@
         <v>2.0333333333333332</v>
       </c>
     </row>
-    <row r="1048576" spans="12:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="1048576" spans="12:12" x14ac:dyDescent="0.4">
       <c r="L1048576">
         <f>H1048576+I1048576+J1048576+K1048576</f>
         <v>0</v>

--- a/src/検証結果.xlsx
+++ b/src/検証結果.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\devSCSA\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F2AA02B-5E54-4107-BC6C-9FE56A892841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="11370"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,14 +37,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -296,7 +297,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -486,8 +487,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="2"/>
-    <cellStyle name="標準 3" xfId="1"/>
+    <cellStyle name="標準 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="標準 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -764,16 +765,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B52" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="S77" sqref="S77"/>
+    <sheetView tabSelected="1" topLeftCell="B71" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J74" sqref="J74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="74.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.4">
@@ -3199,16 +3201,58 @@
         <v>1.3186769005847954</v>
       </c>
     </row>
-    <row r="81" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="81" spans="5:12" x14ac:dyDescent="0.4">
       <c r="E81">
         <f>(F73-L73)/F73*100</f>
         <v>36.238789237668165</v>
       </c>
-    </row>
-    <row r="82" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="G81">
+        <f>45*0.1386</f>
+        <v>6.2370000000000001</v>
+      </c>
+      <c r="I81">
+        <f>G81*E81/100</f>
+        <v>2.2602132847533638</v>
+      </c>
+      <c r="J81">
+        <f>I81*20*12</f>
+        <v>542.45118834080733</v>
+      </c>
+      <c r="K81">
+        <f>J81/60</f>
+        <v>9.0408531390134552</v>
+      </c>
+    </row>
+    <row r="82" spans="5:12" x14ac:dyDescent="0.4">
       <c r="E82">
         <f>(F75-L75)/F75*100</f>
         <v>51.381386016360544</v>
+      </c>
+      <c r="G82">
+        <f>40*0.1137</f>
+        <v>4.548</v>
+      </c>
+      <c r="I82">
+        <f>G82*E82/100</f>
+        <v>2.3368254360240774</v>
+      </c>
+      <c r="J82">
+        <f>I82*20*12</f>
+        <v>560.83810464577869</v>
+      </c>
+      <c r="K82">
+        <f>J82/60</f>
+        <v>9.3473017440963115</v>
+      </c>
+    </row>
+    <row r="83" spans="5:12" x14ac:dyDescent="0.4">
+      <c r="K83">
+        <f>K81+K82</f>
+        <v>18.388154883109767</v>
+      </c>
+      <c r="L83">
+        <f>K83*5000</f>
+        <v>91940.774415548833</v>
       </c>
     </row>
     <row r="1048576" spans="12:12" x14ac:dyDescent="0.4">
@@ -3225,7 +3269,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M1048576"/>
   <sheetViews>
     <sheetView topLeftCell="A15" zoomScale="84" workbookViewId="0">

--- a/src/検証結果.xlsx
+++ b/src/検証結果.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\devSCSA\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F2AA02B-5E54-4107-BC6C-9FE56A892841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="11505" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,14 +37,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="54">
   <si>
     <t>検索内容</t>
     <rPh sb="0" eb="2">
@@ -293,12 +293,82 @@
     <t>ソフトウェアインストール時の申請について</t>
     <phoneticPr fontId="4"/>
   </si>
+  <si>
+    <t>加瀬さん</t>
+    <rPh sb="0" eb="2">
+      <t>カセ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>小林さん</t>
+    <rPh sb="0" eb="2">
+      <t>コバヤシ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>大谷さん</t>
+    <rPh sb="0" eb="2">
+      <t>オオタニ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>橋口さん</t>
+    <rPh sb="0" eb="2">
+      <t>ハシグチ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>安田さん</t>
+    <rPh sb="0" eb="2">
+      <t>ヤスダ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アプリ未使用</t>
+    <rPh sb="3" eb="6">
+      <t>ミシヨウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アプリ使用</t>
+    <rPh sb="3" eb="5">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>未使用</t>
+    <rPh sb="0" eb="3">
+      <t>ミシヨウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>使用</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>削減率</t>
+    <rPh sb="0" eb="3">
+      <t>サクゲンリツ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -354,6 +424,22 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -393,7 +479,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -427,6 +513,87 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -437,7 +604,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -484,11 +651,53 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="標準 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="標準 2" xfId="2"/>
+    <cellStyle name="標準 3" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -501,6 +710,125 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2180952</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>180744</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="8334375"/>
+          <a:ext cx="2180952" cy="1847619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2276475</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>351956</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>104430</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2276475" y="8058150"/>
+          <a:ext cx="3752381" cy="2761905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>171889</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>219348</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6410325" y="8267700"/>
+          <a:ext cx="3143689" cy="1952898"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -765,20 +1093,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M1048576"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B71" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J74" sqref="J74"/>
+    <sheetView topLeftCell="B59" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="74.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -798,9 +1126,7 @@
         <v>32</v>
       </c>
       <c r="G1" s="10"/>
-      <c r="H1" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="H1" s="10"/>
       <c r="I1" s="3" t="s">
         <v>1</v>
       </c>
@@ -810,11 +1136,14 @@
       <c r="K1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -834,9 +1163,7 @@
         <v>3</v>
       </c>
       <c r="G2" s="6"/>
-      <c r="H2" s="6" t="s">
-        <v>3</v>
-      </c>
+      <c r="H2" s="6"/>
       <c r="I2" s="6" t="s">
         <v>3</v>
       </c>
@@ -849,8 +1176,11 @@
       <c r="L2" s="6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M2" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
@@ -869,24 +1199,25 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="G3" s="13"/>
-      <c r="H3" s="8">
+      <c r="H3" s="13"/>
+      <c r="I3" s="8">
         <v>1.5</v>
       </c>
-      <c r="I3" s="8">
-        <v>1</v>
-      </c>
       <c r="J3" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K3" s="8">
         <v>2</v>
       </c>
-      <c r="L3" s="13">
-        <f>H3+I3+J3+K3</f>
+      <c r="L3" s="8">
+        <v>2</v>
+      </c>
+      <c r="M3" s="13">
+        <f>I3+J3+K3+L3</f>
         <v>6.5</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
@@ -905,24 +1236,25 @@
         <v>4.5</v>
       </c>
       <c r="G4" s="13"/>
-      <c r="H4" s="8">
-        <v>0.5</v>
-      </c>
+      <c r="H4" s="13"/>
       <c r="I4" s="8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J4" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K4" s="8">
-        <v>1</v>
-      </c>
-      <c r="L4" s="13">
-        <f>H4+I4+J4+K4</f>
+        <v>3</v>
+      </c>
+      <c r="L4" s="8">
+        <v>1</v>
+      </c>
+      <c r="M4" s="13">
+        <f>I4+J4+K4+L4</f>
         <v>5.5</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
@@ -942,9 +1274,7 @@
         <v>3</v>
       </c>
       <c r="G5" s="6"/>
-      <c r="H5" s="6" t="s">
-        <v>3</v>
-      </c>
+      <c r="H5" s="6"/>
       <c r="I5" s="6" t="s">
         <v>3</v>
       </c>
@@ -957,8 +1287,11 @@
       <c r="L5" s="6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M5" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6" s="9" t="s">
         <v>7</v>
       </c>
@@ -977,24 +1310,25 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="G6" s="13"/>
-      <c r="H6" s="8">
-        <v>0.5</v>
-      </c>
+      <c r="H6" s="13"/>
       <c r="I6" s="8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J6" s="8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K6" s="8">
-        <v>1</v>
-      </c>
-      <c r="L6" s="13">
-        <f>H6+I6+J6+K6</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+        <v>0.5</v>
+      </c>
+      <c r="L6" s="8">
+        <v>1</v>
+      </c>
+      <c r="M6" s="13">
+        <f>I6+J6+K6+L6</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7" s="9" t="s">
         <v>8</v>
       </c>
@@ -1013,24 +1347,25 @@
         <v>5</v>
       </c>
       <c r="G7" s="13"/>
-      <c r="H7" s="8">
-        <v>0.5</v>
-      </c>
+      <c r="H7" s="13"/>
       <c r="I7" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="J7" s="8">
         <v>4</v>
       </c>
-      <c r="J7" s="8">
-        <v>1</v>
-      </c>
       <c r="K7" s="8">
         <v>1</v>
       </c>
-      <c r="L7" s="13">
-        <f>H7+I7+J7+K7</f>
+      <c r="L7" s="8">
+        <v>1</v>
+      </c>
+      <c r="M7" s="13">
+        <f>I7+J7+K7+L7</f>
         <v>6.5</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
@@ -1050,9 +1385,7 @@
         <v>3</v>
       </c>
       <c r="G8" s="6"/>
-      <c r="H8" s="6" t="s">
-        <v>3</v>
-      </c>
+      <c r="H8" s="6"/>
       <c r="I8" s="6" t="s">
         <v>3</v>
       </c>
@@ -1065,8 +1398,11 @@
       <c r="L8" s="6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M8" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9" s="7" t="s">
         <v>10</v>
       </c>
@@ -1085,24 +1421,25 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="G9" s="13"/>
-      <c r="H9" s="8">
-        <v>0.5</v>
-      </c>
+      <c r="H9" s="13"/>
       <c r="I9" s="8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J9" s="8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K9" s="8">
-        <v>1</v>
-      </c>
-      <c r="L9" s="13">
-        <f>H9+I9+J9+K9</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+        <v>0.5</v>
+      </c>
+      <c r="L9" s="8">
+        <v>1</v>
+      </c>
+      <c r="M9" s="13">
+        <f>I9+J9+K9+L9</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10" s="7" t="s">
         <v>11</v>
       </c>
@@ -1119,11 +1456,9 @@
         <v>8</v>
       </c>
       <c r="G10" s="13"/>
-      <c r="H10" s="8">
-        <v>0.5</v>
-      </c>
+      <c r="H10" s="13"/>
       <c r="I10" s="8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J10" s="8">
         <v>1</v>
@@ -1131,12 +1466,15 @@
       <c r="K10" s="8">
         <v>1</v>
       </c>
-      <c r="L10" s="13">
-        <f>H10+I10+J10+K10</f>
+      <c r="L10" s="8">
+        <v>1</v>
+      </c>
+      <c r="M10" s="13">
+        <f>I10+J10+K10+L10</f>
         <v>3.5</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
@@ -1156,9 +1494,7 @@
         <v>3</v>
       </c>
       <c r="G11" s="6"/>
-      <c r="H11" s="6" t="s">
-        <v>3</v>
-      </c>
+      <c r="H11" s="6"/>
       <c r="I11" s="6" t="s">
         <v>3</v>
       </c>
@@ -1171,8 +1507,11 @@
       <c r="L11" s="6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M11" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A12" s="7" t="s">
         <v>13</v>
       </c>
@@ -1191,24 +1530,25 @@
         <v>6.1</v>
       </c>
       <c r="G12" s="13"/>
-      <c r="H12" s="8">
-        <v>0.5</v>
-      </c>
+      <c r="H12" s="13"/>
       <c r="I12" s="8">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="J12" s="8">
+        <v>3</v>
+      </c>
+      <c r="K12" s="8">
         <v>0.75</v>
       </c>
-      <c r="K12" s="8">
-        <v>1</v>
-      </c>
-      <c r="L12" s="13">
-        <f>H12+I12+J12+K12</f>
+      <c r="L12" s="8">
+        <v>1</v>
+      </c>
+      <c r="M12" s="13">
+        <f>I12+J12+K12+L12</f>
         <v>5.25</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A13" s="7" t="s">
         <v>14</v>
       </c>
@@ -1227,11 +1567,9 @@
         <v>4.2</v>
       </c>
       <c r="G13" s="13"/>
-      <c r="H13" s="8">
-        <v>0.5</v>
-      </c>
+      <c r="H13" s="13"/>
       <c r="I13" s="8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J13" s="8">
         <v>1</v>
@@ -1239,12 +1577,15 @@
       <c r="K13" s="8">
         <v>1</v>
       </c>
-      <c r="L13" s="13">
-        <f>H13+I13+J13+K13</f>
+      <c r="L13" s="8">
+        <v>1</v>
+      </c>
+      <c r="M13" s="13">
+        <f>I13+J13+K13+L13</f>
         <v>3.5</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A14" s="5" t="s">
         <v>15</v>
       </c>
@@ -1264,9 +1605,7 @@
         <v>3</v>
       </c>
       <c r="G14" s="6"/>
-      <c r="H14" s="6" t="s">
-        <v>3</v>
-      </c>
+      <c r="H14" s="6"/>
       <c r="I14" s="6" t="s">
         <v>3</v>
       </c>
@@ -1279,8 +1618,11 @@
       <c r="L14" s="6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M14" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A15" s="7" t="s">
         <v>16</v>
       </c>
@@ -1299,11 +1641,9 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="G15" s="13"/>
-      <c r="H15" s="8">
-        <v>0.5</v>
-      </c>
+      <c r="H15" s="13"/>
       <c r="I15" s="8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J15" s="8">
         <v>1</v>
@@ -1311,12 +1651,15 @@
       <c r="K15" s="8">
         <v>1</v>
       </c>
-      <c r="L15" s="13">
-        <f>H15+I15+J15+K15</f>
+      <c r="L15" s="8">
+        <v>1</v>
+      </c>
+      <c r="M15" s="13">
+        <f>I15+J15+K15+L15</f>
         <v>3.5</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A16" s="7" t="s">
         <v>17</v>
       </c>
@@ -1335,11 +1678,9 @@
         <v>4.2</v>
       </c>
       <c r="G16" s="13"/>
-      <c r="H16" s="8">
-        <v>0.5</v>
-      </c>
+      <c r="H16" s="13"/>
       <c r="I16" s="8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J16" s="8">
         <v>1</v>
@@ -1347,17 +1688,20 @@
       <c r="K16" s="8">
         <v>1</v>
       </c>
-      <c r="L16" s="13">
-        <f>H16+I16+J16+K16</f>
+      <c r="L16" s="8">
+        <v>1</v>
+      </c>
+      <c r="M16" s="13">
+        <f>I16+J16+K16+L16</f>
         <v>3.5</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A17" s="14" t="s">
         <v>32</v>
       </c>
       <c r="B17" s="13">
-        <f t="shared" ref="B17:L17" si="0">B3+B4+B6+B7+B9+B10+B12+B13+B15+B16</f>
+        <f t="shared" ref="B17:M17" si="0">B3+B4+B6+B7+B9+B10+B12+B13+B15+B16</f>
         <v>2.4000000000000004</v>
       </c>
       <c r="C17" s="13">
@@ -1377,28 +1721,29 @@
         <v>48.400000000000006</v>
       </c>
       <c r="G17" s="13"/>
-      <c r="H17" s="13">
+      <c r="H17" s="13"/>
+      <c r="I17" s="13">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="I17" s="13">
+      <c r="J17" s="13">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="J17" s="13">
+      <c r="K17" s="13">
         <f t="shared" si="0"/>
         <v>11.75</v>
       </c>
-      <c r="K17" s="13">
+      <c r="L17" s="13">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="L17" s="13">
+      <c r="M17" s="13">
         <f t="shared" si="0"/>
         <v>43.75</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>34</v>
       </c>
@@ -1406,12 +1751,12 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19" s="4" t="s">
         <v>0</v>
       </c>
@@ -1419,12 +1764,12 @@
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
-      <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20" s="7" t="s">
         <v>18</v>
       </c>
@@ -1442,22 +1787,22 @@
         <f>B20+C20+D20+E20</f>
         <v>4.2</v>
       </c>
-      <c r="H20" s="12"/>
-      <c r="I20" s="8">
-        <v>3</v>
-      </c>
+      <c r="I20" s="12"/>
       <c r="J20" s="8">
+        <v>3</v>
+      </c>
+      <c r="K20" s="8">
         <v>6</v>
       </c>
-      <c r="K20" s="8">
+      <c r="L20" s="8">
         <v>2</v>
       </c>
-      <c r="L20">
-        <f>H20+I20+J20+K20</f>
+      <c r="M20">
+        <f>I20+J20+K20+L20</f>
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A21" s="7" t="s">
         <v>19</v>
       </c>
@@ -1475,24 +1820,24 @@
         <f>B21+C21+D21+E21</f>
         <v>4.2</v>
       </c>
-      <c r="H21" s="8">
-        <v>0.5</v>
-      </c>
       <c r="I21" s="8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J21" s="8">
+        <v>1</v>
+      </c>
+      <c r="K21" s="8">
         <v>0.75</v>
       </c>
-      <c r="K21" s="8">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <f>H21+I21+J21+K21</f>
+      <c r="L21" s="8">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <f>I21+J21+K21+L21</f>
         <v>3.25</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22" s="7" t="s">
         <v>20</v>
       </c>
@@ -1510,24 +1855,24 @@
         <f>B22+C22+D22+E22</f>
         <v>2.2000000000000002</v>
       </c>
-      <c r="H22" s="8">
-        <v>0.5</v>
-      </c>
       <c r="I22" s="8">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="J22" s="8">
+        <v>3</v>
+      </c>
+      <c r="K22" s="8">
         <v>0.75</v>
       </c>
-      <c r="K22" s="8">
-        <v>1</v>
-      </c>
-      <c r="L22">
-        <f>H22+I22+J22+K22</f>
+      <c r="L22" s="8">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <f>I22+J22+K22+L22</f>
         <v>5.25</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23" s="7" t="s">
         <v>21</v>
       </c>
@@ -1545,22 +1890,22 @@
         <f>B23+C23+D23+E23</f>
         <v>4.2</v>
       </c>
-      <c r="H23" s="12"/>
-      <c r="I23" s="11">
+      <c r="I23" s="12"/>
+      <c r="J23" s="11">
         <v>5</v>
       </c>
-      <c r="J23" s="8">
-        <v>3</v>
-      </c>
       <c r="K23" s="8">
-        <v>1</v>
-      </c>
-      <c r="L23">
-        <f>H23+I23+J23+K23</f>
+        <v>3</v>
+      </c>
+      <c r="L23" s="8">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <f>I23+J23+K23+L23</f>
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24" s="7" t="s">
         <v>22</v>
       </c>
@@ -1578,23 +1923,23 @@
         <f>B24+C24+D24+E24</f>
         <v>4.2</v>
       </c>
-      <c r="H24" s="12"/>
       <c r="I24" s="12"/>
-      <c r="J24" s="8">
+      <c r="J24" s="12"/>
+      <c r="K24" s="8">
         <v>2</v>
       </c>
-      <c r="K24" s="12"/>
-      <c r="L24">
-        <f>H24+I24+J24+K24</f>
+      <c r="L24" s="12"/>
+      <c r="M24">
+        <f>I24+J24+K24+L24</f>
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25" s="14" t="s">
         <v>32</v>
       </c>
       <c r="B25">
-        <f t="shared" ref="B25:L25" si="1">B20+B21+B22+B23+B24</f>
+        <f t="shared" ref="B25:M25" si="1">B20+B21+B22+B23+B24</f>
         <v>1</v>
       </c>
       <c r="C25">
@@ -1613,28 +1958,28 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="H25">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
       <c r="I25">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="J25">
         <f t="shared" si="1"/>
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="K25">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>12.5</v>
       </c>
       <c r="L25">
         <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="1"/>
         <v>30.5</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
         <v>23</v>
       </c>
@@ -1642,12 +1987,12 @@
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
-      <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="L26" s="1"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27" s="3" t="s">
         <v>0</v>
       </c>
@@ -1655,12 +2000,12 @@
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
-      <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28" s="7" t="s">
         <v>24</v>
       </c>
@@ -1678,22 +2023,22 @@
         <f>B28+C28+D28+E28</f>
         <v>5.2</v>
       </c>
-      <c r="H28" s="12"/>
-      <c r="I28" s="8">
-        <v>1</v>
-      </c>
+      <c r="I28" s="12"/>
       <c r="J28" s="8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K28" s="8">
-        <v>1</v>
-      </c>
-      <c r="L28">
-        <f>H28+I28+J28+K28</f>
+        <v>0.5</v>
+      </c>
+      <c r="L28" s="8">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <f>I28+J28+K28+L28</f>
         <v>2.5</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29" s="7" t="s">
         <v>25</v>
       </c>
@@ -1711,24 +2056,24 @@
         <f>B29+C29+D29+E29</f>
         <v>6.5</v>
       </c>
-      <c r="H29" s="8">
-        <v>0.5</v>
-      </c>
       <c r="I29" s="8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J29" s="8">
+        <v>1</v>
+      </c>
+      <c r="K29" s="8">
         <v>0.75</v>
       </c>
-      <c r="K29" s="8">
-        <v>1</v>
-      </c>
-      <c r="L29">
-        <f>H29+I29+J29+K29</f>
+      <c r="L29" s="8">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <f>I29+J29+K29+L29</f>
         <v>3.25</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30" s="7" t="s">
         <v>26</v>
       </c>
@@ -1746,24 +2091,24 @@
         <f>B30+C30+D30+E30</f>
         <v>4.2</v>
       </c>
-      <c r="H30" s="8">
-        <v>0.5</v>
-      </c>
       <c r="I30" s="8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J30" s="8">
+        <v>1</v>
+      </c>
+      <c r="K30" s="8">
         <v>0.75</v>
       </c>
-      <c r="K30" s="8">
-        <v>1</v>
-      </c>
-      <c r="L30">
-        <f>H30+I30+J30+K30</f>
+      <c r="L30" s="8">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <f>I30+J30+K30+L30</f>
         <v>3.25</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31" s="7" t="s">
         <v>27</v>
       </c>
@@ -1781,24 +2126,24 @@
         <f>B31+C31+D31+E31</f>
         <v>6.2</v>
       </c>
-      <c r="H31" s="8">
-        <v>0.5</v>
-      </c>
       <c r="I31" s="8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J31" s="8">
+        <v>1</v>
+      </c>
+      <c r="K31" s="8">
         <v>0.75</v>
       </c>
-      <c r="K31" s="8">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <f>H31+I31+J31+K31</f>
+      <c r="L31" s="8">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <f>I31+J31+K31+L31</f>
         <v>3.25</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A32" s="7" t="s">
         <v>28</v>
       </c>
@@ -1816,11 +2161,8 @@
         <f>B32+C32+D32+E32</f>
         <v>7.5</v>
       </c>
-      <c r="H32" s="8">
-        <v>0.5</v>
-      </c>
       <c r="I32" s="8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J32" s="8">
         <v>1</v>
@@ -1828,17 +2170,20 @@
       <c r="K32" s="8">
         <v>1</v>
       </c>
-      <c r="L32">
-        <f>H32+I32+J32+K32</f>
+      <c r="L32" s="8">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <f>I32+J32+K32+L32</f>
         <v>3.5</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A33" s="14" t="s">
         <v>32</v>
       </c>
       <c r="B33">
-        <f t="shared" ref="B33:L33" si="2">B28+B29+B30+B31+B32</f>
+        <f t="shared" ref="B33:M33" si="2">B28+B29+B30+B31+B32</f>
         <v>1.5999999999999999</v>
       </c>
       <c r="C33">
@@ -1857,28 +2202,28 @@
         <f t="shared" si="2"/>
         <v>29.599999999999998</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <f t="shared" si="2"/>
         <v>3.75</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <f t="shared" si="2"/>
         <v>15.75</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A36" s="3" t="s">
         <v>0</v>
       </c>
@@ -1900,9 +2245,7 @@
       <c r="G36" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="H36" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="H36" s="10"/>
       <c r="I36" s="3" t="s">
         <v>1</v>
       </c>
@@ -1913,13 +2256,16 @@
         <v>1</v>
       </c>
       <c r="L36" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M36" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M36" s="3" t="s">
+      <c r="N36" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A37" s="5" t="s">
         <v>2</v>
       </c>
@@ -1935,8 +2281,9 @@
       <c r="K37" s="6"/>
       <c r="L37" s="6"/>
       <c r="M37" s="6"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="N37" s="6"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A38" s="7" t="s">
         <v>4</v>
       </c>
@@ -1960,28 +2307,31 @@
         <f>F38/COUNTA(B38:E38)</f>
         <v>1.5249999999999999</v>
       </c>
-      <c r="H38" s="8">
+      <c r="H38" s="13">
+        <v>1</v>
+      </c>
+      <c r="I38" s="8">
         <v>1.5</v>
       </c>
-      <c r="I38" s="8">
-        <v>1</v>
-      </c>
       <c r="J38" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K38" s="8">
         <v>2</v>
       </c>
-      <c r="L38" s="13">
-        <f>H38+I38+J38+K38</f>
+      <c r="L38" s="8">
+        <v>2</v>
+      </c>
+      <c r="M38" s="13">
+        <f>I38+J38+K38+L38</f>
         <v>6.5</v>
       </c>
-      <c r="M38" s="13">
-        <f>L38/COUNTA(H38:K38)</f>
+      <c r="N38" s="13">
+        <f>M38/COUNTA(I38:L38)</f>
         <v>1.625</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A39" s="7" t="s">
         <v>5</v>
       </c>
@@ -2005,28 +2355,31 @@
         <f>F39/COUNTA(B39:E39)</f>
         <v>1.375</v>
       </c>
-      <c r="H39" s="8">
-        <v>0.5</v>
+      <c r="H39" s="13">
+        <v>1</v>
       </c>
       <c r="I39" s="8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J39" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K39" s="8">
-        <v>1</v>
-      </c>
-      <c r="L39" s="13">
-        <f>H39+I39+J39+K39</f>
+        <v>3</v>
+      </c>
+      <c r="L39" s="8">
+        <v>1</v>
+      </c>
+      <c r="M39" s="13">
+        <f>I39+J39+K39+L39</f>
         <v>5.5</v>
       </c>
-      <c r="M39" s="13">
-        <f>L39/COUNTA(H39:K39)</f>
+      <c r="N39" s="13">
+        <f>M39/COUNTA(I39:L39)</f>
         <v>1.375</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A40" s="5" t="s">
         <v>6</v>
       </c>
@@ -2042,8 +2395,9 @@
       <c r="K40" s="6"/>
       <c r="L40" s="6"/>
       <c r="M40" s="6"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="N40" s="6"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A41" s="9" t="s">
         <v>7</v>
       </c>
@@ -2067,28 +2421,31 @@
         <f>F41/COUNTA(B41:E41)</f>
         <v>1.1499999999999999</v>
       </c>
-      <c r="H41" s="8">
-        <v>0.5</v>
+      <c r="H41" s="13">
+        <v>1</v>
       </c>
       <c r="I41" s="8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J41" s="8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K41" s="8">
-        <v>1</v>
-      </c>
-      <c r="L41" s="13">
-        <f>H41+I41+J41+K41</f>
-        <v>3</v>
+        <v>0.5</v>
+      </c>
+      <c r="L41" s="8">
+        <v>1</v>
       </c>
       <c r="M41" s="13">
-        <f>L41/COUNTA(H41:K41)</f>
+        <f>I41+J41+K41+L41</f>
+        <v>3</v>
+      </c>
+      <c r="N41" s="13">
+        <f>M41/COUNTA(I41:L41)</f>
         <v>0.75</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A42" s="9" t="s">
         <v>8</v>
       </c>
@@ -2112,28 +2469,31 @@
         <f>F42/COUNTA(B42:E42)</f>
         <v>1.75</v>
       </c>
-      <c r="H42" s="8">
-        <v>0.5</v>
+      <c r="H42" s="13">
+        <v>1</v>
       </c>
       <c r="I42" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="J42" s="8">
         <v>4</v>
       </c>
-      <c r="J42" s="8">
-        <v>1</v>
-      </c>
       <c r="K42" s="8">
         <v>1</v>
       </c>
-      <c r="L42" s="13">
-        <f>H42+I42+J42+K42</f>
+      <c r="L42" s="8">
+        <v>1</v>
+      </c>
+      <c r="M42" s="13">
+        <f>I42+J42+K42+L42</f>
         <v>6.5</v>
       </c>
-      <c r="M42" s="13">
-        <f>L42/COUNTA(H42:K42)</f>
+      <c r="N42" s="13">
+        <f>M42/COUNTA(I42:L42)</f>
         <v>1.625</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A43" s="5" t="s">
         <v>9</v>
       </c>
@@ -2149,8 +2509,9 @@
       <c r="K43" s="6"/>
       <c r="L43" s="6"/>
       <c r="M43" s="6"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="N43" s="6"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A44" s="7" t="s">
         <v>10</v>
       </c>
@@ -2174,28 +2535,31 @@
         <f>F44/COUNTA(B44:E44)</f>
         <v>1.5249999999999999</v>
       </c>
-      <c r="H44" s="8">
-        <v>0.5</v>
+      <c r="H44" s="13">
+        <v>1</v>
       </c>
       <c r="I44" s="8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J44" s="8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K44" s="8">
-        <v>1</v>
-      </c>
-      <c r="L44" s="13">
-        <f>H44+I44+J44+K44</f>
-        <v>3</v>
+        <v>0.5</v>
+      </c>
+      <c r="L44" s="8">
+        <v>1</v>
       </c>
       <c r="M44" s="13">
-        <f>L44/COUNTA(H44:K44)</f>
+        <f>I44+J44+K44+L44</f>
+        <v>3</v>
+      </c>
+      <c r="N44" s="13">
+        <f>M44/COUNTA(I44:L44)</f>
         <v>0.75</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A45" s="7" t="s">
         <v>11</v>
       </c>
@@ -2217,11 +2581,9 @@
         <f>F45/COUNTA(B45:E45)</f>
         <v>4.666666666666667</v>
       </c>
-      <c r="H45" s="8">
-        <v>0.5</v>
-      </c>
+      <c r="H45" s="16"/>
       <c r="I45" s="8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J45" s="8">
         <v>1</v>
@@ -2229,16 +2591,19 @@
       <c r="K45" s="8">
         <v>1</v>
       </c>
-      <c r="L45" s="13">
-        <f>H45+I45+J45+K45</f>
+      <c r="L45" s="8">
+        <v>1</v>
+      </c>
+      <c r="M45" s="13">
+        <f>I45+J45+K45+L45</f>
         <v>3.5</v>
       </c>
-      <c r="M45" s="13">
-        <f>L45/COUNTA(H45:K45)</f>
+      <c r="N45" s="13">
+        <f>M45/COUNTA(I45:L45)</f>
         <v>0.875</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A46" s="5" t="s">
         <v>12</v>
       </c>
@@ -2254,8 +2619,9 @@
       <c r="K46" s="6"/>
       <c r="L46" s="6"/>
       <c r="M46" s="6"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="N46" s="6"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A47" s="7" t="s">
         <v>13</v>
       </c>
@@ -2279,28 +2645,31 @@
         <f>F47/COUNTA(B47:E47)</f>
         <v>2.0249999999999999</v>
       </c>
-      <c r="H47" s="8">
-        <v>0.5</v>
+      <c r="H47" s="13">
+        <v>1</v>
       </c>
       <c r="I47" s="8">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="J47" s="8">
+        <v>3</v>
+      </c>
+      <c r="K47" s="8">
         <v>0.75</v>
       </c>
-      <c r="K47" s="8">
-        <v>1</v>
-      </c>
-      <c r="L47" s="13">
-        <f>H47+I47+J47+K47</f>
+      <c r="L47" s="8">
+        <v>1</v>
+      </c>
+      <c r="M47" s="13">
+        <f>I47+J47+K47+L47</f>
         <v>5.25</v>
       </c>
-      <c r="M47" s="13">
-        <f>L47/COUNTA(H47:K47)</f>
+      <c r="N47" s="13">
+        <f>M47/COUNTA(I47:L47)</f>
         <v>1.3125</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A48" s="7" t="s">
         <v>14</v>
       </c>
@@ -2324,11 +2693,11 @@
         <f>F48/COUNTA(B48:E48)</f>
         <v>1.175</v>
       </c>
-      <c r="H48" s="8">
-        <v>0.5</v>
+      <c r="H48" s="13">
+        <v>1</v>
       </c>
       <c r="I48" s="8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J48" s="8">
         <v>1</v>
@@ -2336,16 +2705,19 @@
       <c r="K48" s="8">
         <v>1</v>
       </c>
-      <c r="L48" s="13">
-        <f>H48+I48+J48+K48</f>
+      <c r="L48" s="8">
+        <v>1</v>
+      </c>
+      <c r="M48" s="13">
+        <f>I48+J48+K48+L48</f>
         <v>3.5</v>
       </c>
-      <c r="M48" s="13">
-        <f>L48/COUNTA(H48:K48)</f>
+      <c r="N48" s="13">
+        <f>M48/COUNTA(I48:L48)</f>
         <v>0.875</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A49" s="5" t="s">
         <v>15</v>
       </c>
@@ -2361,8 +2733,9 @@
       <c r="K49" s="6"/>
       <c r="L49" s="6"/>
       <c r="M49" s="6"/>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="N49" s="6"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A50" s="7" t="s">
         <v>16</v>
       </c>
@@ -2386,11 +2759,11 @@
         <f>F50/COUNTA(B50:E50)</f>
         <v>1.5249999999999999</v>
       </c>
-      <c r="H50" s="8">
-        <v>0.5</v>
+      <c r="H50" s="13">
+        <v>1</v>
       </c>
       <c r="I50" s="8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J50" s="8">
         <v>1</v>
@@ -2398,16 +2771,19 @@
       <c r="K50" s="8">
         <v>1</v>
       </c>
-      <c r="L50" s="13">
-        <f>H50+I50+J50+K50</f>
+      <c r="L50" s="8">
+        <v>1</v>
+      </c>
+      <c r="M50" s="13">
+        <f>I50+J50+K50+L50</f>
         <v>3.5</v>
       </c>
-      <c r="M50" s="13">
-        <f t="shared" ref="M50:M53" si="3">L50/COUNTA(H50:K50)</f>
+      <c r="N50" s="13">
+        <f t="shared" ref="N50:N53" si="3">M50/COUNTA(I50:L50)</f>
         <v>0.875</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A51" s="7" t="s">
         <v>17</v>
       </c>
@@ -2431,11 +2807,11 @@
         <f>F51/COUNTA(B51:E51)</f>
         <v>1.175</v>
       </c>
-      <c r="H51" s="8">
-        <v>0.5</v>
+      <c r="H51" s="13">
+        <v>1</v>
       </c>
       <c r="I51" s="8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J51" s="8">
         <v>1</v>
@@ -2443,16 +2819,19 @@
       <c r="K51" s="8">
         <v>1</v>
       </c>
-      <c r="L51" s="13">
-        <f>H51+I51+J51+K51</f>
+      <c r="L51" s="8">
+        <v>1</v>
+      </c>
+      <c r="M51" s="13">
+        <f>I51+J51+K51+L51</f>
         <v>3.5</v>
       </c>
-      <c r="M51" s="13">
+      <c r="N51" s="13">
         <f t="shared" si="3"/>
         <v>0.875</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A52" s="5" t="s">
         <v>32</v>
       </c>
@@ -2480,32 +2859,33 @@
         <f>F52/COUNTA(B52:E52)</f>
         <v>16.725000000000001</v>
       </c>
-      <c r="H52" s="13">
-        <f t="shared" ref="H52" si="9">H38+H39+H41+H42+H44+H45+H47+H48+H50+H51</f>
+      <c r="H52" s="13"/>
+      <c r="I52" s="13">
+        <f t="shared" ref="I52" si="9">I38+I39+I41+I42+I44+I45+I47+I48+I50+I51</f>
         <v>6</v>
       </c>
-      <c r="I52" s="13">
-        <f t="shared" ref="I52" si="10">I38+I39+I41+I42+I44+I45+I47+I48+I50+I51</f>
+      <c r="J52" s="13">
+        <f t="shared" ref="J52" si="10">J38+J39+J41+J42+J44+J45+J47+J48+J50+J51</f>
         <v>15</v>
       </c>
-      <c r="J52" s="13">
-        <f t="shared" ref="J52" si="11">J38+J39+J41+J42+J44+J45+J47+J48+J50+J51</f>
+      <c r="K52" s="13">
+        <f t="shared" ref="K52" si="11">K38+K39+K41+K42+K44+K45+K47+K48+K50+K51</f>
         <v>11.75</v>
       </c>
-      <c r="K52" s="13">
-        <f t="shared" ref="K52" si="12">K38+K39+K41+K42+K44+K45+K47+K48+K50+K51</f>
+      <c r="L52" s="13">
+        <f t="shared" ref="L52" si="12">L38+L39+L41+L42+L44+L45+L47+L48+L50+L51</f>
         <v>11</v>
       </c>
-      <c r="L52" s="13">
-        <f t="shared" ref="L52" si="13">L38+L39+L41+L42+L44+L45+L47+L48+L50+L51</f>
+      <c r="M52" s="13">
+        <f t="shared" ref="M52" si="13">M38+M39+M41+M42+M44+M45+M47+M48+M50+M51</f>
         <v>43.75</v>
       </c>
-      <c r="M52" s="13">
+      <c r="N52" s="13">
         <f t="shared" si="3"/>
         <v>10.9375</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A53" s="5" t="s">
         <v>35</v>
       </c>
@@ -2533,32 +2913,33 @@
         <f>F53/COUNTA(B53:E53)</f>
         <v>1.6725000000000001</v>
       </c>
-      <c r="H53" s="13">
-        <f>H52/COUNTA(H37:H51)</f>
-        <v>0.6</v>
-      </c>
+      <c r="H53" s="13"/>
       <c r="I53" s="13">
         <f>I52/COUNTA(I37:I51)</f>
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="J53" s="13">
         <f>J52/COUNTA(J37:J51)</f>
-        <v>1.175</v>
+        <v>1.5</v>
       </c>
       <c r="K53" s="13">
         <f>K52/COUNTA(K37:K51)</f>
-        <v>1.1000000000000001</v>
+        <v>1.175</v>
       </c>
       <c r="L53" s="13">
         <f>L52/COUNTA(L37:L51)</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M53" s="13">
+        <f>M52/COUNTA(M37:M51)</f>
         <v>4.375</v>
       </c>
-      <c r="M53" s="13">
+      <c r="N53" s="13">
         <f t="shared" si="3"/>
         <v>1.09375</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A55" s="4" t="s">
         <v>0</v>
       </c>
@@ -2572,18 +2953,19 @@
       <c r="G55" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="H55" s="3"/>
+      <c r="H55" s="10"/>
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-      <c r="L55" s="3" t="s">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M55" s="3" t="s">
+      <c r="N55" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A56" s="7" t="s">
         <v>18</v>
       </c>
@@ -2607,26 +2989,26 @@
         <f t="shared" ref="G56:G61" si="14">F56/COUNTA(B56:E56)</f>
         <v>1.175</v>
       </c>
-      <c r="H56" s="12"/>
-      <c r="I56" s="8">
-        <v>3</v>
-      </c>
+      <c r="I56" s="12"/>
       <c r="J56" s="8">
+        <v>3</v>
+      </c>
+      <c r="K56" s="8">
         <v>6</v>
       </c>
-      <c r="K56" s="8">
+      <c r="L56" s="8">
         <v>2</v>
       </c>
-      <c r="L56">
-        <f>H56+I56+J56+K56</f>
+      <c r="M56">
+        <f>I56+J56+K56+L56</f>
         <v>11</v>
       </c>
-      <c r="M56">
-        <f t="shared" ref="M56:M61" si="15">L56/COUNTA(H56:K56)</f>
+      <c r="N56">
+        <f t="shared" ref="N56:N61" si="15">M56/COUNTA(I56:L56)</f>
         <v>3.6666666666666665</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A57" s="7" t="s">
         <v>19</v>
       </c>
@@ -2650,28 +3032,28 @@
         <f t="shared" si="14"/>
         <v>1.175</v>
       </c>
-      <c r="H57" s="8">
-        <v>0.5</v>
-      </c>
       <c r="I57" s="8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J57" s="8">
+        <v>1</v>
+      </c>
+      <c r="K57" s="8">
         <v>0.75</v>
       </c>
-      <c r="K57" s="8">
-        <v>1</v>
-      </c>
-      <c r="L57">
-        <f>H57+I57+J57+K57</f>
+      <c r="L57" s="8">
+        <v>1</v>
+      </c>
+      <c r="M57">
+        <f>I57+J57+K57+L57</f>
         <v>3.25</v>
       </c>
-      <c r="M57">
+      <c r="N57">
         <f t="shared" si="15"/>
         <v>0.8125</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A58" s="7" t="s">
         <v>20</v>
       </c>
@@ -2695,28 +3077,28 @@
         <f t="shared" si="14"/>
         <v>0.67500000000000004</v>
       </c>
-      <c r="H58" s="8">
-        <v>0.5</v>
-      </c>
       <c r="I58" s="8">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="J58" s="8">
+        <v>3</v>
+      </c>
+      <c r="K58" s="8">
         <v>0.75</v>
       </c>
-      <c r="K58" s="8">
-        <v>1</v>
-      </c>
-      <c r="L58">
-        <f>H58+I58+J58+K58</f>
+      <c r="L58" s="8">
+        <v>1</v>
+      </c>
+      <c r="M58">
+        <f>I58+J58+K58+L58</f>
         <v>5.25</v>
       </c>
-      <c r="M58">
+      <c r="N58">
         <f t="shared" si="15"/>
         <v>1.3125</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A59" s="7" t="s">
         <v>21</v>
       </c>
@@ -2740,26 +3122,26 @@
         <f t="shared" si="14"/>
         <v>1.175</v>
       </c>
-      <c r="H59" s="12"/>
-      <c r="I59" s="11">
+      <c r="I59" s="12"/>
+      <c r="J59" s="11">
         <v>5</v>
       </c>
-      <c r="J59" s="8">
-        <v>3</v>
-      </c>
       <c r="K59" s="8">
-        <v>1</v>
-      </c>
-      <c r="L59">
-        <f>H59+I59+J59+K59</f>
+        <v>3</v>
+      </c>
+      <c r="L59" s="8">
+        <v>1</v>
+      </c>
+      <c r="M59">
+        <f>I59+J59+K59+L59</f>
         <v>9</v>
       </c>
-      <c r="M59">
+      <c r="N59">
         <f t="shared" si="15"/>
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A60" s="15" t="s">
         <v>43</v>
       </c>
@@ -2783,22 +3165,22 @@
         <f t="shared" si="14"/>
         <v>1.175</v>
       </c>
-      <c r="H60" s="12"/>
       <c r="I60" s="12"/>
-      <c r="J60" s="8">
+      <c r="J60" s="12"/>
+      <c r="K60" s="8">
         <v>2</v>
       </c>
-      <c r="K60" s="12"/>
-      <c r="L60">
-        <f>H60+I60+J60+K60</f>
+      <c r="L60" s="12"/>
+      <c r="M60">
+        <f>I60+J60+K60+L60</f>
         <v>2</v>
       </c>
-      <c r="M60">
+      <c r="N60">
         <f t="shared" si="15"/>
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A61" s="5" t="s">
         <v>32</v>
       </c>
@@ -2826,32 +3208,32 @@
         <f t="shared" si="14"/>
         <v>5.375</v>
       </c>
-      <c r="H61">
-        <f t="shared" ref="H61" si="21">H56+H57+H58+H59+H60</f>
-        <v>1</v>
-      </c>
       <c r="I61">
-        <f t="shared" ref="I61" si="22">I56+I57+I58+I59+I60</f>
+        <f t="shared" ref="I61" si="21">I56+I57+I58+I59+I60</f>
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <f t="shared" ref="J61" si="22">J56+J57+J58+J59+J60</f>
         <v>12</v>
       </c>
-      <c r="J61">
-        <f t="shared" ref="J61" si="23">J56+J57+J58+J59+J60</f>
+      <c r="K61">
+        <f t="shared" ref="K61" si="23">K56+K57+K58+K59+K60</f>
         <v>12.5</v>
       </c>
-      <c r="K61">
-        <f t="shared" ref="K61" si="24">K56+K57+K58+K59+K60</f>
+      <c r="L61">
+        <f t="shared" ref="L61" si="24">L56+L57+L58+L59+L60</f>
         <v>5</v>
       </c>
-      <c r="L61">
-        <f t="shared" ref="L61" si="25">L56+L57+L58+L59+L60</f>
+      <c r="M61">
+        <f t="shared" ref="M61" si="25">M56+M57+M58+M59+M60</f>
         <v>30.5</v>
       </c>
-      <c r="M61">
+      <c r="N61">
         <f t="shared" si="15"/>
         <v>7.625</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A62" s="5" t="s">
         <v>35</v>
       </c>
@@ -2863,16 +3245,16 @@
         <f>G61/COUNTA(G56:G60)</f>
         <v>1.075</v>
       </c>
-      <c r="L62">
-        <f>L61/COUNTA(L56:L60)</f>
-        <v>6.1</v>
-      </c>
       <c r="M62">
         <f>M61/COUNTA(M56:M60)</f>
+        <v>6.1</v>
+      </c>
+      <c r="N62">
+        <f>N61/COUNTA(N56:N60)</f>
         <v>1.5249999999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A64" s="3" t="s">
         <v>0</v>
       </c>
@@ -2880,12 +3262,12 @@
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
-      <c r="H64" s="3"/>
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A65" s="7" t="s">
         <v>24</v>
       </c>
@@ -2905,22 +3287,22 @@
         <f>B65+C65+D65+E65</f>
         <v>5.7</v>
       </c>
-      <c r="H65" s="12"/>
-      <c r="I65" s="8">
-        <v>1</v>
-      </c>
+      <c r="I65" s="12"/>
       <c r="J65" s="8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K65" s="8">
-        <v>1</v>
-      </c>
-      <c r="L65">
-        <f>H65+I65+J65+K65</f>
+        <v>0.5</v>
+      </c>
+      <c r="L65" s="8">
+        <v>1</v>
+      </c>
+      <c r="M65">
+        <f>I65+J65+K65+L65</f>
         <v>2.5</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A66" s="7" t="s">
         <v>25</v>
       </c>
@@ -2940,24 +3322,24 @@
         <f>B66+C66+D66+E66</f>
         <v>7</v>
       </c>
-      <c r="H66" s="8">
-        <v>0.5</v>
-      </c>
       <c r="I66" s="8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J66" s="8">
+        <v>1</v>
+      </c>
+      <c r="K66" s="8">
         <v>0.75</v>
       </c>
-      <c r="K66" s="8">
-        <v>1</v>
-      </c>
-      <c r="L66">
-        <f>H66+I66+J66+K66</f>
+      <c r="L66" s="8">
+        <v>1</v>
+      </c>
+      <c r="M66">
+        <f>I66+J66+K66+L66</f>
         <v>3.25</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A67" s="7" t="s">
         <v>26</v>
       </c>
@@ -2977,24 +3359,24 @@
         <f>B67+C67+D67+E67</f>
         <v>4.7</v>
       </c>
-      <c r="H67" s="8">
-        <v>0.5</v>
-      </c>
       <c r="I67" s="8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J67" s="8">
+        <v>1</v>
+      </c>
+      <c r="K67" s="8">
         <v>0.75</v>
       </c>
-      <c r="K67" s="8">
-        <v>1</v>
-      </c>
-      <c r="L67">
-        <f>H67+I67+J67+K67</f>
+      <c r="L67" s="8">
+        <v>1</v>
+      </c>
+      <c r="M67">
+        <f>I67+J67+K67+L67</f>
         <v>3.25</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A68" s="7" t="s">
         <v>27</v>
       </c>
@@ -3014,24 +3396,24 @@
         <f>B68+C68+D68+E68</f>
         <v>8.1999999999999993</v>
       </c>
-      <c r="H68" s="8">
-        <v>0.5</v>
-      </c>
       <c r="I68" s="8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J68" s="8">
+        <v>1</v>
+      </c>
+      <c r="K68" s="8">
         <v>0.75</v>
       </c>
-      <c r="K68" s="8">
-        <v>1</v>
-      </c>
-      <c r="L68">
-        <f>H68+I68+J68+K68</f>
+      <c r="L68" s="8">
+        <v>1</v>
+      </c>
+      <c r="M68">
+        <f>I68+J68+K68+L68</f>
         <v>3.25</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A69" s="7" t="s">
         <v>28</v>
       </c>
@@ -3051,11 +3433,8 @@
         <f>B69+C69+D69+E69</f>
         <v>8.5</v>
       </c>
-      <c r="H69" s="8">
-        <v>0.5</v>
-      </c>
       <c r="I69" s="8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J69" s="8">
         <v>1</v>
@@ -3063,12 +3442,15 @@
       <c r="K69" s="8">
         <v>1</v>
       </c>
-      <c r="L69">
-        <f>H69+I69+J69+K69</f>
+      <c r="L69" s="8">
+        <v>1</v>
+      </c>
+      <c r="M69">
+        <f>I69+J69+K69+L69</f>
         <v>3.5</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A70" s="14" t="s">
         <v>32</v>
       </c>
@@ -3092,36 +3474,36 @@
         <f t="shared" ref="F70" si="30">F65+F66+F67+F68+F69</f>
         <v>34.099999999999994</v>
       </c>
-      <c r="H70">
-        <f t="shared" ref="H70" si="31">H65+H66+H67+H68+H69</f>
+      <c r="I70">
+        <f t="shared" ref="I70" si="31">I65+I66+I67+I68+I69</f>
         <v>2</v>
       </c>
-      <c r="I70">
-        <f t="shared" ref="I70" si="32">I65+I66+I67+I68+I69</f>
+      <c r="J70">
+        <f t="shared" ref="J70" si="32">J65+J66+J67+J68+J69</f>
         <v>5</v>
       </c>
-      <c r="J70">
-        <f t="shared" ref="J70" si="33">J65+J66+J67+J68+J69</f>
+      <c r="K70">
+        <f t="shared" ref="K70" si="33">K65+K66+K67+K68+K69</f>
         <v>3.75</v>
       </c>
-      <c r="K70">
-        <f t="shared" ref="K70" si="34">K65+K66+K67+K68+K69</f>
+      <c r="L70">
+        <f t="shared" ref="L70" si="34">L65+L66+L67+L68+L69</f>
         <v>5</v>
       </c>
-      <c r="L70">
-        <f t="shared" ref="L70" si="35">L65+L66+L67+L68+L69</f>
+      <c r="M70">
+        <f t="shared" ref="M70" si="35">M65+M66+M67+M68+M69</f>
         <v>15.75</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E72" t="s">
         <v>41</v>
       </c>
-      <c r="K72" t="s">
+      <c r="L72" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E73" t="s">
         <v>36</v>
       </c>
@@ -3129,15 +3511,15 @@
         <f>F52/COUNTA(B37:E51)</f>
         <v>1.7153846153846155</v>
       </c>
-      <c r="K73" t="s">
+      <c r="L73" t="s">
         <v>36</v>
       </c>
-      <c r="L73">
-        <f>L52/COUNTA(H38:K51)</f>
+      <c r="M73">
+        <f>M52/COUNTA(I38:L51)</f>
         <v>1.09375</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E74" t="s">
         <v>37</v>
       </c>
@@ -3145,15 +3527,15 @@
         <f>F61/COUNTA(B56:E60)</f>
         <v>1.075</v>
       </c>
-      <c r="K74" t="s">
+      <c r="L74" t="s">
         <v>37</v>
       </c>
-      <c r="L74">
-        <f>L61/COUNTA(H56:K60)</f>
+      <c r="M74">
+        <f>M61/COUNTA(I56:L60)</f>
         <v>2.0333333333333332</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E75" t="s">
         <v>38</v>
       </c>
@@ -3161,15 +3543,15 @@
         <f>F70/COUNTA(B65:E69)</f>
         <v>1.7049999999999996</v>
       </c>
-      <c r="K75" t="s">
+      <c r="L75" t="s">
         <v>38</v>
       </c>
-      <c r="L75">
-        <f>L70/COUNTA(H65:K69)</f>
+      <c r="M75">
+        <f>M70/COUNTA(I65:L69)</f>
         <v>0.82894736842105265</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E76" t="s">
         <v>39</v>
       </c>
@@ -3177,15 +3559,15 @@
         <f>F73+F74+F75</f>
         <v>4.4953846153846158</v>
       </c>
-      <c r="K76" t="s">
+      <c r="L76" t="s">
         <v>39</v>
       </c>
-      <c r="L76">
-        <f>L73+L74+L75</f>
+      <c r="M76">
+        <f>M73+M74+M75</f>
         <v>3.9560307017543859</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E77" t="s">
         <v>40</v>
       </c>
@@ -3193,71 +3575,71 @@
         <f>F76/3</f>
         <v>1.4984615384615385</v>
       </c>
-      <c r="K77" t="s">
+      <c r="L77" t="s">
         <v>40</v>
       </c>
-      <c r="L77">
-        <f>L76/3</f>
+      <c r="M77">
+        <f>M76/3</f>
         <v>1.3186769005847954</v>
       </c>
     </row>
-    <row r="81" spans="5:12" x14ac:dyDescent="0.4">
+    <row r="81" spans="5:13" x14ac:dyDescent="0.4">
       <c r="E81">
-        <f>(F73-L73)/F73*100</f>
+        <f>(F73-M73)/F73*100</f>
         <v>36.238789237668165</v>
       </c>
       <c r="G81">
         <f>45*0.1386</f>
         <v>6.2370000000000001</v>
       </c>
-      <c r="I81">
+      <c r="J81">
         <f>G81*E81/100</f>
         <v>2.2602132847533638</v>
       </c>
-      <c r="J81">
-        <f>I81*20*12</f>
+      <c r="K81">
+        <f>J81*20*12</f>
         <v>542.45118834080733</v>
       </c>
-      <c r="K81">
-        <f>J81/60</f>
+      <c r="L81">
+        <f>K81/60</f>
         <v>9.0408531390134552</v>
       </c>
     </row>
-    <row r="82" spans="5:12" x14ac:dyDescent="0.4">
+    <row r="82" spans="5:13" x14ac:dyDescent="0.4">
       <c r="E82">
-        <f>(F75-L75)/F75*100</f>
+        <f>(F75-M75)/F75*100</f>
         <v>51.381386016360544</v>
       </c>
       <c r="G82">
         <f>40*0.1137</f>
         <v>4.548</v>
       </c>
-      <c r="I82">
+      <c r="J82">
         <f>G82*E82/100</f>
         <v>2.3368254360240774</v>
       </c>
-      <c r="J82">
-        <f>I82*20*12</f>
+      <c r="K82">
+        <f>J82*20*12</f>
         <v>560.83810464577869</v>
       </c>
-      <c r="K82">
-        <f>J82/60</f>
+      <c r="L82">
+        <f>K82/60</f>
         <v>9.3473017440963115</v>
       </c>
     </row>
-    <row r="83" spans="5:12" x14ac:dyDescent="0.4">
-      <c r="K83">
-        <f>K81+K82</f>
+    <row r="83" spans="5:13" x14ac:dyDescent="0.4">
+      <c r="L83">
+        <f>L81+L82</f>
         <v>18.388154883109767</v>
       </c>
-      <c r="L83">
-        <f>K83*5000</f>
+      <c r="M83">
+        <f>L83*5000</f>
         <v>91940.774415548833</v>
       </c>
     </row>
-    <row r="1048576" spans="12:12" x14ac:dyDescent="0.4">
-      <c r="L1048576">
-        <f>H1048576+I1048576+J1048576+K1048576</f>
+    <row r="1048576" spans="13:13" x14ac:dyDescent="0.4">
+      <c r="M1048576">
+        <f>I1048576+J1048576+K1048576+L1048576</f>
         <v>0</v>
       </c>
     </row>
@@ -3269,7 +3651,1501 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q69"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="K36" sqref="K36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="74.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="5.375" customWidth="1"/>
+    <col min="14" max="14" width="9.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="23"/>
+      <c r="N1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A2" s="18"/>
+      <c r="B2" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2">
+        <f>SUM(F4:J17)</f>
+        <v>41.75</v>
+      </c>
+      <c r="O2">
+        <f>SUM(B4:E17)</f>
+        <v>66.900000000000006</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="M3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3">
+        <f>N2/COUNTA(F4:J17)</f>
+        <v>1.0705128205128205</v>
+      </c>
+      <c r="O3">
+        <f>O2/COUNTA(B4:E17)</f>
+        <v>1.7153846153846155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="C4" s="8">
+        <v>1</v>
+      </c>
+      <c r="D4" s="8">
+        <v>3</v>
+      </c>
+      <c r="E4" s="8">
+        <v>2</v>
+      </c>
+      <c r="F4" s="13">
+        <v>1</v>
+      </c>
+      <c r="G4" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="H4" s="8">
+        <v>1</v>
+      </c>
+      <c r="I4" s="8">
+        <v>2</v>
+      </c>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C5" s="8">
+        <v>1</v>
+      </c>
+      <c r="D5" s="8">
+        <v>3</v>
+      </c>
+      <c r="E5" s="8">
+        <v>1</v>
+      </c>
+      <c r="F5" s="13">
+        <v>1</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="H5" s="8">
+        <v>1</v>
+      </c>
+      <c r="I5" s="8">
+        <v>3</v>
+      </c>
+      <c r="J5" s="8"/>
+      <c r="M5" t="s">
+        <v>53</v>
+      </c>
+      <c r="N5">
+        <f>ROUND((O3-N3)/O3*100,2)</f>
+        <v>37.590000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="C7" s="8">
+        <v>1</v>
+      </c>
+      <c r="D7" s="8">
+        <v>3</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F7" s="13">
+        <v>1</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="H7" s="8">
+        <v>1</v>
+      </c>
+      <c r="I7" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="8">
+        <v>3</v>
+      </c>
+      <c r="E8" s="8">
+        <v>2</v>
+      </c>
+      <c r="F8" s="13">
+        <v>1</v>
+      </c>
+      <c r="G8" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="H8" s="8">
+        <v>4</v>
+      </c>
+      <c r="I8" s="8">
+        <v>1</v>
+      </c>
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="C10" s="8">
+        <v>1</v>
+      </c>
+      <c r="D10" s="8">
+        <v>3</v>
+      </c>
+      <c r="E10" s="8">
+        <v>2</v>
+      </c>
+      <c r="F10" s="13">
+        <v>1</v>
+      </c>
+      <c r="G10" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="H10" s="8">
+        <v>1</v>
+      </c>
+      <c r="I10" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="8">
+        <v>3</v>
+      </c>
+      <c r="D11" s="8">
+        <v>5</v>
+      </c>
+      <c r="E11" s="8">
+        <v>6</v>
+      </c>
+      <c r="F11" s="28"/>
+      <c r="G11" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="H11" s="8">
+        <v>1</v>
+      </c>
+      <c r="I11" s="8">
+        <v>1</v>
+      </c>
+      <c r="J11" s="8"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="C13" s="8">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8">
+        <v>5</v>
+      </c>
+      <c r="E13" s="8">
+        <v>2</v>
+      </c>
+      <c r="F13" s="13">
+        <v>1</v>
+      </c>
+      <c r="G13" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="H13" s="8">
+        <v>3</v>
+      </c>
+      <c r="I13" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="J13" s="8"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A14" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="C14" s="8">
+        <v>1</v>
+      </c>
+      <c r="D14" s="8">
+        <v>3</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F14" s="13">
+        <v>1</v>
+      </c>
+      <c r="G14" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="H14" s="8">
+        <v>1</v>
+      </c>
+      <c r="I14" s="8">
+        <v>1</v>
+      </c>
+      <c r="J14" s="8"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A16" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="C16" s="8">
+        <v>1</v>
+      </c>
+      <c r="D16" s="8">
+        <v>3</v>
+      </c>
+      <c r="E16" s="8">
+        <v>2</v>
+      </c>
+      <c r="F16" s="13">
+        <v>1</v>
+      </c>
+      <c r="G16" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="H16" s="8">
+        <v>1</v>
+      </c>
+      <c r="I16" s="8">
+        <v>1</v>
+      </c>
+      <c r="J16" s="8"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="C17" s="8">
+        <v>1</v>
+      </c>
+      <c r="D17" s="8">
+        <v>3</v>
+      </c>
+      <c r="E17" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F17" s="13">
+        <v>1</v>
+      </c>
+      <c r="G17" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="H17" s="8">
+        <v>1</v>
+      </c>
+      <c r="I17" s="8">
+        <v>1</v>
+      </c>
+      <c r="J17" s="8"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A19" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="N19" t="s">
+        <v>52</v>
+      </c>
+      <c r="O19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A20" s="24"/>
+      <c r="B20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M20" t="s">
+        <v>32</v>
+      </c>
+      <c r="N20">
+        <f>SUM(F21:J25)</f>
+        <v>27.5</v>
+      </c>
+      <c r="O20">
+        <f>SUM(B21:E25)</f>
+        <v>21.499999999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A21" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="C21" s="8">
+        <v>1</v>
+      </c>
+      <c r="D21" s="8">
+        <v>3</v>
+      </c>
+      <c r="E21" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F21" s="28"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="8">
+        <v>3</v>
+      </c>
+      <c r="I21" s="8">
+        <v>6</v>
+      </c>
+      <c r="J21" s="8"/>
+      <c r="M21" t="s">
+        <v>35</v>
+      </c>
+      <c r="N21">
+        <f>N20/COUNTA(F21:J25)</f>
+        <v>2.1153846153846154</v>
+      </c>
+      <c r="O21">
+        <f>O20/COUNTA(B21:E25)</f>
+        <v>1.0749999999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A22" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="C22" s="8">
+        <v>1</v>
+      </c>
+      <c r="D22" s="8">
+        <v>3</v>
+      </c>
+      <c r="E22" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F22" s="8">
+        <v>1</v>
+      </c>
+      <c r="G22" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="H22" s="8">
+        <v>1</v>
+      </c>
+      <c r="I22" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="J22" s="8"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A23" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="C23" s="8">
+        <v>1</v>
+      </c>
+      <c r="D23" s="8">
+        <v>1</v>
+      </c>
+      <c r="E23" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F23" s="28"/>
+      <c r="G23" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="H23" s="8">
+        <v>3</v>
+      </c>
+      <c r="I23" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="J23" s="8"/>
+      <c r="M23" t="s">
+        <v>53</v>
+      </c>
+      <c r="N23">
+        <f>ROUND((O21-N21)/O21*100,2)</f>
+        <v>-96.78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="C24" s="8">
+        <v>1</v>
+      </c>
+      <c r="D24" s="8">
+        <v>3</v>
+      </c>
+      <c r="E24" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F24" s="8">
+        <v>1</v>
+      </c>
+      <c r="G24" s="12"/>
+      <c r="H24" s="11">
+        <v>5</v>
+      </c>
+      <c r="I24" s="8">
+        <v>3</v>
+      </c>
+      <c r="J24" s="8"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A25" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="C25" s="8">
+        <v>1</v>
+      </c>
+      <c r="D25" s="8">
+        <v>3</v>
+      </c>
+      <c r="E25" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F25" s="25"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="8">
+        <v>2</v>
+      </c>
+      <c r="J25" s="12"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A27" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="23"/>
+      <c r="N27" t="s">
+        <v>52</v>
+      </c>
+      <c r="O27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A28" s="24"/>
+      <c r="B28" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G28" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="J28" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="M28" t="s">
+        <v>32</v>
+      </c>
+      <c r="N28">
+        <f>SUM(F29:J33)</f>
+        <v>15.75</v>
+      </c>
+      <c r="O28">
+        <f>SUM(B29:E33)</f>
+        <v>34.099999999999994</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A29" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="C29" s="8">
+        <v>2</v>
+      </c>
+      <c r="D29" s="8">
+        <v>3</v>
+      </c>
+      <c r="E29" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F29" s="8">
+        <v>1</v>
+      </c>
+      <c r="G29" s="12"/>
+      <c r="H29" s="8">
+        <v>1</v>
+      </c>
+      <c r="I29" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="J29" s="8"/>
+      <c r="M29" t="s">
+        <v>35</v>
+      </c>
+      <c r="N29">
+        <f>N28/COUNTA(F29:J33)</f>
+        <v>0.82894736842105265</v>
+      </c>
+      <c r="O29">
+        <f>O28/COUNTA(B29:E33)</f>
+        <v>1.7049999999999996</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A30" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C30" s="8">
+        <v>3</v>
+      </c>
+      <c r="D30" s="8">
+        <v>3</v>
+      </c>
+      <c r="E30" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F30" s="8">
+        <v>1</v>
+      </c>
+      <c r="G30" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="H30" s="8">
+        <v>1</v>
+      </c>
+      <c r="I30" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="J30" s="8"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A31" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="C31" s="8">
+        <v>1</v>
+      </c>
+      <c r="D31" s="8">
+        <v>3</v>
+      </c>
+      <c r="E31" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F31" s="8">
+        <v>1</v>
+      </c>
+      <c r="G31" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="H31" s="8">
+        <v>1</v>
+      </c>
+      <c r="I31" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="J31" s="8"/>
+      <c r="M31" t="s">
+        <v>53</v>
+      </c>
+      <c r="N31">
+        <f>ROUND((O29-N29)/O29*100,2)</f>
+        <v>51.38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A32" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="C32" s="8">
+        <v>3</v>
+      </c>
+      <c r="D32" s="8">
+        <v>3</v>
+      </c>
+      <c r="E32" s="8">
+        <v>2</v>
+      </c>
+      <c r="F32" s="8">
+        <v>1</v>
+      </c>
+      <c r="G32" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="H32" s="8">
+        <v>1</v>
+      </c>
+      <c r="I32" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="J32" s="8"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A33" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C33" s="8">
+        <v>2</v>
+      </c>
+      <c r="D33" s="8">
+        <v>5</v>
+      </c>
+      <c r="E33" s="8">
+        <v>1</v>
+      </c>
+      <c r="F33" s="26">
+        <v>1</v>
+      </c>
+      <c r="G33" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="H33" s="8">
+        <v>1</v>
+      </c>
+      <c r="I33" s="8">
+        <v>1</v>
+      </c>
+      <c r="J33" s="8"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="F34" s="27"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="M35">
+        <v>4650</v>
+      </c>
+      <c r="N35">
+        <v>20</v>
+      </c>
+      <c r="O35">
+        <v>45</v>
+      </c>
+      <c r="P35">
+        <v>13.86</v>
+      </c>
+      <c r="Q35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="M36">
+        <v>10</v>
+      </c>
+      <c r="N36">
+        <v>12</v>
+      </c>
+      <c r="P36">
+        <v>11.37</v>
+      </c>
+      <c r="Q36">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="M38">
+        <f>ROUND(O35*P35/100,2)</f>
+        <v>6.24</v>
+      </c>
+      <c r="N38">
+        <f>ROUND(Q35*N5/100,2)</f>
+        <v>3.76</v>
+      </c>
+      <c r="O38">
+        <f>ROUND(N38*N35*N36/60,2)</f>
+        <v>15.04</v>
+      </c>
+      <c r="P38">
+        <f>O38*M35*M36</f>
+        <v>699360</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="M39">
+        <f>ROUND(O35*P36/100,2)</f>
+        <v>5.12</v>
+      </c>
+      <c r="N39">
+        <f>ROUND(Q36*N31/100,2)</f>
+        <v>5.14</v>
+      </c>
+      <c r="O39">
+        <f>ROUND(N39*N35*N36/60,2)</f>
+        <v>20.56</v>
+      </c>
+      <c r="P39">
+        <f>O39*M35*M36</f>
+        <v>956040</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="P40">
+        <f>P38+P39</f>
+        <v>1655400</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="O41">
+        <f>O38+O39</f>
+        <v>35.599999999999994</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="O42">
+        <f>O41*M35</f>
+        <v>165539.99999999997</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A54" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G54" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H54" s="10"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A55" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B55" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="C55" s="8">
+        <v>1</v>
+      </c>
+      <c r="D55" s="8">
+        <v>3</v>
+      </c>
+      <c r="E55" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F55">
+        <f>B55+C55+D55+E55</f>
+        <v>4.7</v>
+      </c>
+      <c r="G55">
+        <f t="shared" ref="G55:G60" si="0">F55/COUNTA(B55:E55)</f>
+        <v>1.175</v>
+      </c>
+      <c r="I55" s="12"/>
+      <c r="J55" s="8">
+        <v>3</v>
+      </c>
+      <c r="K55" s="8">
+        <v>6</v>
+      </c>
+      <c r="L55" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A56" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B56" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="C56" s="8">
+        <v>1</v>
+      </c>
+      <c r="D56" s="8">
+        <v>3</v>
+      </c>
+      <c r="E56" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F56">
+        <f>B56+C56+D56+E56</f>
+        <v>4.7</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="0"/>
+        <v>1.175</v>
+      </c>
+      <c r="I56" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="J56" s="8">
+        <v>1</v>
+      </c>
+      <c r="K56" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="L56" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A57" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B57" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="C57" s="8">
+        <v>1</v>
+      </c>
+      <c r="D57" s="8">
+        <v>1</v>
+      </c>
+      <c r="E57" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F57">
+        <f>B57+C57+D57+E57</f>
+        <v>2.7</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="0"/>
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="I57" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="J57" s="8">
+        <v>3</v>
+      </c>
+      <c r="K57" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="L57" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A58" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B58" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="C58" s="8">
+        <v>1</v>
+      </c>
+      <c r="D58" s="8">
+        <v>3</v>
+      </c>
+      <c r="E58" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F58">
+        <f>B58+C58+D58+E58</f>
+        <v>4.7</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="0"/>
+        <v>1.175</v>
+      </c>
+      <c r="I58" s="12"/>
+      <c r="J58" s="11">
+        <v>5</v>
+      </c>
+      <c r="K58" s="8">
+        <v>3</v>
+      </c>
+      <c r="L58" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A59" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B59" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="C59" s="8">
+        <v>1</v>
+      </c>
+      <c r="D59" s="8">
+        <v>3</v>
+      </c>
+      <c r="E59" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F59">
+        <f>B59+C59+D59+E59</f>
+        <v>4.7</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="0"/>
+        <v>1.175</v>
+      </c>
+      <c r="I59" s="12"/>
+      <c r="J59" s="12"/>
+      <c r="K59" s="8">
+        <v>2</v>
+      </c>
+      <c r="L59" s="12"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A60" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B60">
+        <f t="shared" ref="B60:F60" si="1">B55+B56+B57+B58+B59</f>
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="1"/>
+        <v>21.5</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="0"/>
+        <v>5.375</v>
+      </c>
+      <c r="I60">
+        <f t="shared" ref="I60:L60" si="2">I55+I56+I57+I58+I59</f>
+        <v>1</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="2"/>
+        <v>12.5</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A61" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F61">
+        <f>F60/COUNTA(F55:F59)</f>
+        <v>4.3</v>
+      </c>
+      <c r="G61">
+        <f>G60/COUNTA(G55:G59)</f>
+        <v>1.075</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A63" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3"/>
+      <c r="K63" s="3"/>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A64" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B64" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="C64" s="8">
+        <v>2</v>
+      </c>
+      <c r="D64" s="8">
+        <v>3</v>
+      </c>
+      <c r="E64" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F64">
+        <f>B64+C64+D64+E64</f>
+        <v>5.7</v>
+      </c>
+      <c r="I64" s="12"/>
+      <c r="J64" s="8">
+        <v>1</v>
+      </c>
+      <c r="K64" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="L64" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A65" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B65" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C65" s="8">
+        <v>3</v>
+      </c>
+      <c r="D65" s="8">
+        <v>3</v>
+      </c>
+      <c r="E65" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F65">
+        <f>B65+C65+D65+E65</f>
+        <v>7</v>
+      </c>
+      <c r="I65" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="J65" s="8">
+        <v>1</v>
+      </c>
+      <c r="K65" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="L65" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A66" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B66" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="C66" s="8">
+        <v>1</v>
+      </c>
+      <c r="D66" s="8">
+        <v>3</v>
+      </c>
+      <c r="E66" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F66">
+        <f>B66+C66+D66+E66</f>
+        <v>4.7</v>
+      </c>
+      <c r="I66" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="J66" s="8">
+        <v>1</v>
+      </c>
+      <c r="K66" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="L66" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A67" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B67" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="C67" s="8">
+        <v>3</v>
+      </c>
+      <c r="D67" s="8">
+        <v>3</v>
+      </c>
+      <c r="E67" s="8">
+        <v>2</v>
+      </c>
+      <c r="F67">
+        <f>B67+C67+D67+E67</f>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="I67" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="J67" s="8">
+        <v>1</v>
+      </c>
+      <c r="K67" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="L67" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A68" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B68" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C68" s="8">
+        <v>2</v>
+      </c>
+      <c r="D68" s="8">
+        <v>5</v>
+      </c>
+      <c r="E68" s="8">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <f>B68+C68+D68+E68</f>
+        <v>8.5</v>
+      </c>
+      <c r="I68" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="J68" s="8">
+        <v>1</v>
+      </c>
+      <c r="K68" s="8">
+        <v>1</v>
+      </c>
+      <c r="L68" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A69" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B69">
+        <f t="shared" ref="B69:F69" si="3">B64+B65+B66+B67+B68</f>
+        <v>1.5999999999999999</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="3"/>
+        <v>4.5</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="3"/>
+        <v>34.099999999999994</v>
+      </c>
+      <c r="I69">
+        <f t="shared" ref="I69:L69" si="4">I64+I65+I66+I67+I68</f>
+        <v>2</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="4"/>
+        <v>3.75</v>
+      </c>
+      <c r="L69">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:J27"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:E1"/>
+  </mergeCells>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M1048576"/>
   <sheetViews>
     <sheetView topLeftCell="A15" zoomScale="84" workbookViewId="0">
